--- a/PivotHesaplama_020126.xlsx
+++ b/PivotHesaplama_020126.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Kesisim_Sinyalleri" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kesisim_Sinyalleri!$A$1:$M$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pivot_Raporu!$A$1:$BF$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kesisim_Sinyalleri!$A$1:$M$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pivot_Raporu!$A$1:$BF$26</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="93">
   <si>
     <t>Tarih</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>AKFYE</t>
+  </si>
+  <si>
+    <t>AKGRT</t>
   </si>
   <si>
     <t>AKSA</t>
@@ -688,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -911,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>11.8</v>
@@ -950,7 +953,7 @@
         <v>220.42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2">
         <v>13.42</v>
@@ -998,7 +1001,7 @@
         <v>66.28</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="2">
         <v>12.98</v>
@@ -1028,7 +1031,7 @@
         <v>-30.52</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP2" s="2">
         <v>17.18</v>
@@ -1087,7 +1090,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>28.92</v>
@@ -1126,7 +1129,7 @@
         <v>48.49</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P3" s="3">
         <v>30.11</v>
@@ -1174,7 +1177,7 @@
         <v>-58.26</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="3">
         <v>31.09</v>
@@ -1204,7 +1207,7 @@
         <v>-12.94</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP3" s="3">
         <v>36.07</v>
@@ -1263,7 +1266,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>97.7</v>
@@ -1302,7 +1305,7 @@
         <v>18.81</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P4" s="2">
         <v>100.25</v>
@@ -1350,7 +1353,7 @@
         <v>-21.89</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF4" s="2">
         <v>104.35</v>
@@ -1380,7 +1383,7 @@
         <v>9.25</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP4" s="2">
         <v>120.7</v>
@@ -1439,7 +1442,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3">
         <v>33</v>
@@ -1478,7 +1481,7 @@
         <v>11.57</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P5" s="3">
         <v>35.45</v>
@@ -1526,7 +1529,7 @@
         <v>76.81999999999999</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF5" s="3">
         <v>35.03</v>
@@ -1556,7 +1559,7 @@
         <v>-29.83</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP5" s="3">
         <v>42.25</v>
@@ -1615,7 +1618,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>1.53</v>
@@ -1654,7 +1657,7 @@
         <v>-33.09</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" s="2">
         <v>1.56</v>
@@ -1702,7 +1705,7 @@
         <v>-9.640000000000001</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="2">
         <v>1.81</v>
@@ -1732,7 +1735,7 @@
         <v>10.45</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP6" s="2">
         <v>3.64</v>
@@ -1791,7 +1794,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3">
         <v>44.02</v>
@@ -1830,7 +1833,7 @@
         <v>19.16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P7" s="3">
         <v>45.32</v>
@@ -1878,7 +1881,7 @@
         <v>-38.78</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" s="3">
         <v>46.69</v>
@@ -1908,7 +1911,7 @@
         <v>-15.35</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP7" s="3">
         <v>61.02</v>
@@ -1967,7 +1970,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <v>15.73</v>
@@ -2006,7 +2009,7 @@
         <v>-16.77</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>16.17</v>
@@ -2054,7 +2057,7 @@
         <v>-18.2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF8" s="2">
         <v>16.59</v>
@@ -2084,7 +2087,7 @@
         <v>-28.65</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP8" s="2">
         <v>18.7</v>
@@ -2143,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3">
         <v>12.99</v>
@@ -2182,7 +2185,7 @@
         <v>63.6</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9" s="3">
         <v>13.22</v>
@@ -2230,7 +2233,7 @@
         <v>-3.95</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF9" s="3">
         <v>13.38</v>
@@ -2260,7 +2263,7 @@
         <v>-17.82</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP9" s="3">
         <v>15.28</v>
@@ -2319,7 +2322,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>224</v>
@@ -2358,7 +2361,7 @@
         <v>27.41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" s="2">
         <v>222.1</v>
@@ -2406,7 +2409,7 @@
         <v>62.04</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF10" s="2">
         <v>235.8</v>
@@ -2436,7 +2439,7 @@
         <v>-14.91</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP10" s="2">
         <v>275.65</v>
@@ -2495,7 +2498,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3">
         <v>28.8</v>
@@ -2534,7 +2537,7 @@
         <v>41.72</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" s="3">
         <v>29.72</v>
@@ -2582,7 +2585,7 @@
         <v>-14.92</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF11" s="3">
         <v>30.17</v>
@@ -2612,7 +2615,7 @@
         <v>-21.84</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP11" s="3">
         <v>33.98</v>
@@ -2671,7 +2674,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>5.95</v>
@@ -2710,7 +2713,7 @@
         <v>63.62</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="2">
         <v>6.59</v>
@@ -2758,7 +2761,7 @@
         <v>-63.09</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF12" s="2">
         <v>6.82</v>
@@ -2788,7 +2791,7 @@
         <v>22.48</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP12" s="2">
         <v>8.779999999999999</v>
@@ -2847,7 +2850,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3">
         <v>22.64</v>
@@ -2886,7 +2889,7 @@
         <v>-46</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="3">
         <v>22.69</v>
@@ -2934,7 +2937,7 @@
         <v>-15.82</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF13" s="3">
         <v>25.09</v>
@@ -2964,7 +2967,7 @@
         <v>-4.17</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP13" s="3">
         <v>32.48</v>
@@ -3023,7 +3026,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2">
         <v>16.7</v>
@@ -3062,7 +3065,7 @@
         <v>49.78</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="2">
         <v>16.95</v>
@@ -3110,7 +3113,7 @@
         <v>16.03</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF14" s="2">
         <v>19.16</v>
@@ -3140,7 +3143,7 @@
         <v>-7.12</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP14" s="2">
         <v>23.13</v>
@@ -3199,7 +3202,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3">
         <v>70.09999999999999</v>
@@ -3238,7 +3241,7 @@
         <v>17.12</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P15" s="3">
         <v>75.2</v>
@@ -3286,7 +3289,7 @@
         <v>-5.14</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF15" s="3">
         <v>74.65000000000001</v>
@@ -3316,7 +3319,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP15" s="3">
         <v>83.95999999999999</v>
@@ -3375,7 +3378,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2">
         <v>165</v>
@@ -3414,7 +3417,7 @@
         <v>-51.69</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" s="2">
         <v>163.65</v>
@@ -3462,7 +3465,7 @@
         <v>2.11</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF16" s="2">
         <v>185.65</v>
@@ -3492,7 +3495,7 @@
         <v>39.75</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP16" s="2">
         <v>213.4</v>
@@ -3551,7 +3554,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3">
         <v>11.29</v>
@@ -3590,7 +3593,7 @@
         <v>1.89</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="3">
         <v>11.36</v>
@@ -3638,7 +3641,7 @@
         <v>-61.41</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF17" s="3">
         <v>12.63</v>
@@ -3668,7 +3671,7 @@
         <v>-28.43</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP17" s="3">
         <v>14.42</v>
@@ -3727,7 +3730,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2">
         <v>20.22</v>
@@ -3766,7 +3769,7 @@
         <v>-45.46</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" s="2">
         <v>20.69</v>
@@ -3814,7 +3817,7 @@
         <v>-20.91</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF18" s="2">
         <v>21.12</v>
@@ -3844,7 +3847,7 @@
         <v>-36.34</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP18" s="2">
         <v>28.77</v>
@@ -3903,7 +3906,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3">
         <v>16.46</v>
@@ -3942,7 +3945,7 @@
         <v>115.64</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="3">
         <v>17.04</v>
@@ -3990,7 +3993,7 @@
         <v>-20.83</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF19" s="3">
         <v>17.19</v>
@@ -4020,7 +4023,7 @@
         <v>-20.64</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP19" s="3">
         <v>19.83</v>
@@ -4079,175 +4082,175 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2">
-        <v>9.9</v>
+        <v>6.81</v>
       </c>
       <c r="D20" s="2">
-        <v>10.12</v>
+        <v>6.91</v>
       </c>
       <c r="E20" s="2">
-        <v>9.85</v>
+        <v>6.79</v>
       </c>
       <c r="F20" s="2">
-        <v>10.11</v>
+        <v>6.9</v>
       </c>
       <c r="G20" s="2">
-        <v>16088927</v>
+        <v>11941253</v>
       </c>
       <c r="H20" s="2">
-        <v>10.05</v>
+        <v>6.88</v>
       </c>
       <c r="I20" s="2">
-        <v>10.02</v>
+        <v>6.87</v>
       </c>
       <c r="J20" s="2">
-        <v>10.02</v>
+        <v>6.92</v>
       </c>
       <c r="K20" s="2">
-        <v>10.46</v>
+        <v>6.86</v>
       </c>
       <c r="L20" s="2">
-        <v>10.11</v>
+        <v>6.9</v>
       </c>
       <c r="M20" s="2">
-        <v>2.95</v>
+        <v>1.47</v>
       </c>
       <c r="N20" s="2">
-        <v>-16.58</v>
+        <v>56.34</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P20" s="2">
-        <v>10.24</v>
+        <v>6.96</v>
       </c>
       <c r="Q20" s="2">
-        <v>9.98</v>
+        <v>6.84</v>
       </c>
       <c r="R20" s="2">
-        <v>10.32</v>
+        <v>7</v>
       </c>
       <c r="S20" s="2">
-        <v>9.779999999999999</v>
+        <v>6.76</v>
       </c>
       <c r="T20" s="2">
-        <v>10.51</v>
+        <v>7.08</v>
       </c>
       <c r="U20" s="2">
-        <v>9.699999999999999</v>
+        <v>6.72</v>
       </c>
       <c r="V20" s="2">
-        <v>10.35</v>
+        <v>7.04</v>
       </c>
       <c r="W20" s="2">
-        <v>9.869999999999999</v>
+        <v>6.76</v>
       </c>
       <c r="X20" s="2">
-        <v>10.5</v>
+        <v>7.15</v>
       </c>
       <c r="Y20" s="2">
-        <v>9.539999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="Z20" s="2">
-        <v>10.83</v>
+        <v>7.32</v>
       </c>
       <c r="AA20" s="2">
-        <v>9.390000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="AB20" s="2">
-        <v>10.11</v>
+        <v>6.9</v>
       </c>
       <c r="AC20" s="2">
-        <v>2.85</v>
+        <v>-0.86</v>
       </c>
       <c r="AD20" s="2">
-        <v>-20.59</v>
+        <v>20.96</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF20" s="2">
-        <v>10.34</v>
+        <v>7.27</v>
       </c>
       <c r="AG20" s="2">
-        <v>9.300000000000001</v>
+        <v>6.33</v>
       </c>
       <c r="AH20" s="2">
-        <v>11.06</v>
+        <v>7.86</v>
       </c>
       <c r="AI20" s="2">
-        <v>8.98</v>
+        <v>5.98</v>
       </c>
       <c r="AJ20" s="2">
-        <v>11.38</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AK20" s="2">
-        <v>8.26</v>
+        <v>5.39</v>
       </c>
       <c r="AL20" s="2">
-        <v>9.82</v>
+        <v>6.8</v>
       </c>
       <c r="AM20" s="2">
-        <v>-3.35</v>
+        <v>2.1</v>
       </c>
       <c r="AN20" s="2">
-        <v>4.23</v>
+        <v>-2.26</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP20" s="2">
-        <v>12.36</v>
+        <v>8.31</v>
       </c>
       <c r="AQ20" s="2">
-        <v>7.28</v>
+        <v>5.29</v>
       </c>
       <c r="AR20" s="2">
-        <v>15.54</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="AS20" s="2">
-        <v>5.38</v>
+        <v>3.85</v>
       </c>
       <c r="AT20" s="2">
-        <v>17.44</v>
+        <v>11.33</v>
       </c>
       <c r="AU20" s="2">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
         <v>0</v>
       </c>
       <c r="AX20" s="2">
-        <v>48.37</v>
+        <v>47.8</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="AZ20" s="2">
-        <v>-13.2</v>
+        <v>-66.93000000000001</v>
       </c>
       <c r="BA20" s="2">
-        <v>9.94</v>
+        <v>6.89</v>
       </c>
       <c r="BB20" s="2">
-        <v>9.98</v>
+        <v>6.97</v>
       </c>
       <c r="BC20" s="2">
-        <v>10.08</v>
+        <v>6.97</v>
       </c>
       <c r="BD20" s="2">
-        <v>10.26</v>
+        <v>6.93</v>
       </c>
       <c r="BE20" s="2">
-        <v>9.69</v>
+        <v>7.32</v>
       </c>
       <c r="BF20" s="2">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="21" spans="1:58">
@@ -4255,175 +4258,175 @@
         <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3">
-        <v>71.5</v>
+        <v>9.9</v>
       </c>
       <c r="D21" s="3">
-        <v>71.75</v>
+        <v>10.12</v>
       </c>
       <c r="E21" s="3">
-        <v>68.90000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="F21" s="3">
-        <v>68.90000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="G21" s="3">
-        <v>13543316</v>
+        <v>16088927</v>
       </c>
       <c r="H21" s="3">
-        <v>69.61</v>
+        <v>10.05</v>
       </c>
       <c r="I21" s="3">
-        <v>69.68000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="J21" s="3">
-        <v>67.81999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="K21" s="3">
-        <v>62.48</v>
+        <v>10.46</v>
       </c>
       <c r="L21" s="3">
-        <v>68.90000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="M21" s="3">
-        <v>-4.97</v>
+        <v>2.95</v>
       </c>
       <c r="N21" s="3">
-        <v>-20.75</v>
+        <v>-16.58</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P21" s="3">
-        <v>70.33</v>
+        <v>10.24</v>
       </c>
       <c r="Q21" s="3">
-        <v>67.48</v>
+        <v>9.98</v>
       </c>
       <c r="R21" s="3">
-        <v>72.45999999999999</v>
+        <v>10.32</v>
       </c>
       <c r="S21" s="3">
-        <v>66.76000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="T21" s="3">
-        <v>73.18000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="U21" s="3">
-        <v>64.63</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V21" s="3">
-        <v>73.45</v>
+        <v>10.35</v>
       </c>
       <c r="W21" s="3">
-        <v>64.34999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="X21" s="3">
-        <v>78.78</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" s="3">
-        <v>60.58</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Z21" s="3">
-        <v>82.55</v>
+        <v>10.83</v>
       </c>
       <c r="AA21" s="3">
-        <v>55.25</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AB21" s="3">
-        <v>68.90000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="AC21" s="3">
-        <v>1.32</v>
+        <v>2.85</v>
       </c>
       <c r="AD21" s="3">
-        <v>-12.39</v>
+        <v>-20.59</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF21" s="3">
-        <v>84.34999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="AG21" s="3">
-        <v>60.65</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH21" s="3">
-        <v>91.52</v>
+        <v>11.06</v>
       </c>
       <c r="AI21" s="3">
-        <v>44.12</v>
+        <v>8.98</v>
       </c>
       <c r="AJ21" s="3">
-        <v>108.05</v>
+        <v>11.38</v>
       </c>
       <c r="AK21" s="3">
-        <v>36.95</v>
+        <v>8.26</v>
       </c>
       <c r="AL21" s="3">
-        <v>72.5</v>
+        <v>9.82</v>
       </c>
       <c r="AM21" s="3">
-        <v>37.57</v>
+        <v>-3.35</v>
       </c>
       <c r="AN21" s="3">
-        <v>19.37</v>
+        <v>4.23</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AP21" s="3">
-        <v>95.04000000000001</v>
+        <v>12.36</v>
       </c>
       <c r="AQ21" s="3">
-        <v>49.96</v>
+        <v>7.28</v>
       </c>
       <c r="AR21" s="3">
-        <v>107.56</v>
+        <v>15.54</v>
       </c>
       <c r="AS21" s="3">
-        <v>17.4</v>
+        <v>5.38</v>
       </c>
       <c r="AT21" s="3">
-        <v>140.12</v>
+        <v>17.44</v>
       </c>
       <c r="AU21" s="3">
-        <v>4.88</v>
+        <v>2.2</v>
       </c>
       <c r="AV21" s="3">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="3">
         <v>0</v>
       </c>
-      <c r="AW21" s="3">
-        <v>2</v>
-      </c>
       <c r="AX21" s="3">
-        <v>63.86</v>
+        <v>48.37</v>
       </c>
       <c r="AY21" s="3">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="AZ21" s="3">
-        <v>142.17</v>
+        <v>-13.2</v>
       </c>
       <c r="BA21" s="3">
-        <v>68.72</v>
+        <v>9.94</v>
       </c>
       <c r="BB21" s="3">
-        <v>65.72</v>
+        <v>9.98</v>
       </c>
       <c r="BC21" s="3">
-        <v>63.61</v>
+        <v>10.08</v>
       </c>
       <c r="BD21" s="3">
-        <v>60.8</v>
+        <v>10.26</v>
       </c>
       <c r="BE21" s="3">
-        <v>62.34</v>
+        <v>9.69</v>
       </c>
       <c r="BF21" s="3">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:58">
@@ -4431,175 +4434,175 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2">
-        <v>26</v>
+        <v>71.5</v>
       </c>
       <c r="D22" s="2">
-        <v>26.3</v>
+        <v>71.75</v>
       </c>
       <c r="E22" s="2">
-        <v>23.4</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>24.28</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>9295940</v>
+        <v>13543316</v>
       </c>
       <c r="H22" s="2">
-        <v>24.56</v>
+        <v>69.61</v>
       </c>
       <c r="I22" s="2">
-        <v>23.92</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="J22" s="2">
-        <v>23.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>22</v>
+        <v>62.48</v>
       </c>
       <c r="L22" s="2">
-        <v>24.28</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="M22" s="2">
-        <v>-6.62</v>
+        <v>-4.97</v>
       </c>
       <c r="N22" s="2">
-        <v>190.15</v>
+        <v>-20.75</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P22" s="2">
-        <v>25.73</v>
+        <v>70.33</v>
       </c>
       <c r="Q22" s="2">
-        <v>22.83</v>
+        <v>67.48</v>
       </c>
       <c r="R22" s="2">
-        <v>27.47</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="S22" s="2">
-        <v>21.66</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="T22" s="2">
-        <v>28.63</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="U22" s="2">
-        <v>19.93</v>
+        <v>64.63</v>
       </c>
       <c r="V22" s="2">
-        <v>27.03</v>
+        <v>73.45</v>
       </c>
       <c r="W22" s="2">
-        <v>21.53</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="X22" s="2">
-        <v>29.42</v>
+        <v>78.78</v>
       </c>
       <c r="Y22" s="2">
-        <v>18.42</v>
+        <v>60.58</v>
       </c>
       <c r="Z22" s="2">
-        <v>32.53</v>
+        <v>82.55</v>
       </c>
       <c r="AA22" s="2">
-        <v>16.03</v>
+        <v>55.25</v>
       </c>
       <c r="AB22" s="2">
-        <v>24.28</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AC22" s="2">
-        <v>7.43</v>
+        <v>1.32</v>
       </c>
       <c r="AD22" s="2">
-        <v>44.22</v>
+        <v>-12.39</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF22" s="2">
-        <v>31.56</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="AG22" s="2">
-        <v>20.44</v>
+        <v>60.65</v>
       </c>
       <c r="AH22" s="2">
-        <v>34.34</v>
+        <v>91.52</v>
       </c>
       <c r="AI22" s="2">
-        <v>12.1</v>
+        <v>44.12</v>
       </c>
       <c r="AJ22" s="2">
-        <v>42.68</v>
+        <v>108.05</v>
       </c>
       <c r="AK22" s="2">
-        <v>9.32</v>
+        <v>36.95</v>
       </c>
       <c r="AL22" s="2">
-        <v>26</v>
+        <v>72.5</v>
       </c>
       <c r="AM22" s="2">
-        <v>58.73</v>
+        <v>37.57</v>
       </c>
       <c r="AN22" s="2">
-        <v>476.12</v>
+        <v>19.37</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP22" s="2">
-        <v>34</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="AQ22" s="2">
-        <v>18</v>
+        <v>49.96</v>
       </c>
       <c r="AR22" s="2">
-        <v>38</v>
+        <v>107.56</v>
       </c>
       <c r="AS22" s="2">
-        <v>6</v>
+        <v>17.4</v>
       </c>
       <c r="AT22" s="2">
-        <v>50</v>
+        <v>140.12</v>
       </c>
       <c r="AU22" s="2">
-        <v>2</v>
+        <v>4.88</v>
       </c>
       <c r="AV22" s="2">
         <v>0</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="2">
-        <v>67.18000000000001</v>
+        <v>63.86</v>
       </c>
       <c r="AY22" s="2">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AZ22" s="2">
-        <v>141.6</v>
+        <v>142.17</v>
       </c>
       <c r="BA22" s="2">
-        <v>23.74</v>
+        <v>68.72</v>
       </c>
       <c r="BB22" s="2">
-        <v>21.62</v>
+        <v>65.72</v>
       </c>
       <c r="BC22" s="2">
-        <v>20.38</v>
+        <v>63.61</v>
       </c>
       <c r="BD22" s="2">
-        <v>19.35</v>
+        <v>60.8</v>
       </c>
       <c r="BE22" s="2">
-        <v>20.8</v>
+        <v>62.34</v>
       </c>
       <c r="BF22" s="2">
-        <v>4.85</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="23" spans="1:58">
@@ -4607,175 +4610,175 @@
         <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3">
-        <v>2.74</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3">
-        <v>2.8</v>
+        <v>26.3</v>
       </c>
       <c r="E23" s="3">
-        <v>2.71</v>
+        <v>23.4</v>
       </c>
       <c r="F23" s="3">
-        <v>2.78</v>
+        <v>24.28</v>
       </c>
       <c r="G23" s="3">
-        <v>1282014</v>
+        <v>9295940</v>
       </c>
       <c r="H23" s="3">
-        <v>2.77</v>
+        <v>24.56</v>
       </c>
       <c r="I23" s="3">
-        <v>2.78</v>
+        <v>23.92</v>
       </c>
       <c r="J23" s="3">
-        <v>2.79</v>
+        <v>23.22</v>
       </c>
       <c r="K23" s="3">
-        <v>3.12</v>
+        <v>22</v>
       </c>
       <c r="L23" s="3">
-        <v>2.78</v>
+        <v>24.28</v>
       </c>
       <c r="M23" s="3">
-        <v>1.46</v>
+        <v>-6.62</v>
       </c>
       <c r="N23" s="3">
-        <v>26.59</v>
+        <v>190.15</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="P23" s="3">
-        <v>2.82</v>
+        <v>25.73</v>
       </c>
       <c r="Q23" s="3">
-        <v>2.74</v>
+        <v>22.83</v>
       </c>
       <c r="R23" s="3">
-        <v>2.86</v>
+        <v>27.47</v>
       </c>
       <c r="S23" s="3">
-        <v>2.68</v>
+        <v>21.66</v>
       </c>
       <c r="T23" s="3">
-        <v>2.92</v>
+        <v>28.63</v>
       </c>
       <c r="U23" s="3">
-        <v>2.65</v>
+        <v>19.93</v>
       </c>
       <c r="V23" s="3">
-        <v>2.88</v>
+        <v>27.03</v>
       </c>
       <c r="W23" s="3">
-        <v>2.68</v>
+        <v>21.53</v>
       </c>
       <c r="X23" s="3">
-        <v>2.99</v>
+        <v>29.42</v>
       </c>
       <c r="Y23" s="3">
-        <v>2.58</v>
+        <v>18.42</v>
       </c>
       <c r="Z23" s="3">
-        <v>3.08</v>
+        <v>32.53</v>
       </c>
       <c r="AA23" s="3">
-        <v>2.48</v>
+        <v>16.03</v>
       </c>
       <c r="AB23" s="3">
-        <v>2.78</v>
+        <v>24.28</v>
       </c>
       <c r="AC23" s="3">
-        <v>-1.77</v>
+        <v>7.43</v>
       </c>
       <c r="AD23" s="3">
-        <v>-32.77</v>
+        <v>44.22</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AF23" s="3">
-        <v>2.92</v>
+        <v>31.56</v>
       </c>
       <c r="AG23" s="3">
-        <v>2.57</v>
+        <v>20.44</v>
       </c>
       <c r="AH23" s="3">
-        <v>3.14</v>
+        <v>34.34</v>
       </c>
       <c r="AI23" s="3">
-        <v>2.44</v>
+        <v>12.1</v>
       </c>
       <c r="AJ23" s="3">
-        <v>3.26</v>
+        <v>42.68</v>
       </c>
       <c r="AK23" s="3">
-        <v>2.22</v>
+        <v>9.32</v>
       </c>
       <c r="AL23" s="3">
-        <v>2.74</v>
+        <v>26</v>
       </c>
       <c r="AM23" s="3">
-        <v>-5.84</v>
+        <v>58.73</v>
       </c>
       <c r="AN23" s="3">
-        <v>-25.09</v>
+        <v>476.12</v>
       </c>
       <c r="AO23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP23" s="3">
-        <v>3.85</v>
+        <v>34</v>
       </c>
       <c r="AQ23" s="3">
-        <v>1.63</v>
+        <v>18</v>
       </c>
       <c r="AR23" s="3">
-        <v>5.35</v>
+        <v>38</v>
       </c>
       <c r="AS23" s="3">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="AT23" s="3">
-        <v>6.07</v>
+        <v>50</v>
       </c>
       <c r="AU23" s="3">
-        <v>-0.59</v>
+        <v>2</v>
       </c>
       <c r="AV23" s="3">
         <v>0</v>
       </c>
       <c r="AW23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="3">
-        <v>41.3</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="AY23" s="3">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AZ23" s="3">
-        <v>-67.04000000000001</v>
+        <v>141.6</v>
       </c>
       <c r="BA23" s="3">
-        <v>2.77</v>
+        <v>23.74</v>
       </c>
       <c r="BB23" s="3">
-        <v>2.8</v>
+        <v>21.62</v>
       </c>
       <c r="BC23" s="3">
-        <v>2.83</v>
+        <v>20.38</v>
       </c>
       <c r="BD23" s="3">
-        <v>2.89</v>
+        <v>19.35</v>
       </c>
       <c r="BE23" s="3">
-        <v>2.67</v>
+        <v>20.8</v>
       </c>
       <c r="BF23" s="3">
-        <v>0.76</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="24" spans="1:58">
@@ -4783,175 +4786,175 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2">
-        <v>102.2</v>
+        <v>2.74</v>
       </c>
       <c r="D24" s="2">
-        <v>105.4</v>
+        <v>2.8</v>
       </c>
       <c r="E24" s="2">
-        <v>102.2</v>
+        <v>2.71</v>
       </c>
       <c r="F24" s="2">
-        <v>105.4</v>
+        <v>2.78</v>
       </c>
       <c r="G24" s="2">
-        <v>11033581</v>
+        <v>1282014</v>
       </c>
       <c r="H24" s="2">
-        <v>104.6</v>
+        <v>2.77</v>
       </c>
       <c r="I24" s="2">
-        <v>104.58</v>
+        <v>2.78</v>
       </c>
       <c r="J24" s="2">
-        <v>100.96</v>
+        <v>2.79</v>
       </c>
       <c r="K24" s="2">
-        <v>96.73999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="L24" s="2">
-        <v>105.4</v>
+        <v>2.78</v>
       </c>
       <c r="M24" s="2">
-        <v>3.33</v>
+        <v>1.46</v>
       </c>
       <c r="N24" s="2">
-        <v>67.98999999999999</v>
+        <v>26.59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P24" s="2">
-        <v>107</v>
+        <v>2.82</v>
       </c>
       <c r="Q24" s="2">
-        <v>103.8</v>
+        <v>2.74</v>
       </c>
       <c r="R24" s="2">
-        <v>107.8</v>
+        <v>2.86</v>
       </c>
       <c r="S24" s="2">
-        <v>101.4</v>
+        <v>2.68</v>
       </c>
       <c r="T24" s="2">
-        <v>110.2</v>
+        <v>2.92</v>
       </c>
       <c r="U24" s="2">
-        <v>100.6</v>
+        <v>2.65</v>
       </c>
       <c r="V24" s="2">
-        <v>107.95</v>
+        <v>2.88</v>
       </c>
       <c r="W24" s="2">
-        <v>102.85</v>
+        <v>2.68</v>
       </c>
       <c r="X24" s="2">
-        <v>109.68</v>
+        <v>2.99</v>
       </c>
       <c r="Y24" s="2">
-        <v>99.48</v>
+        <v>2.58</v>
       </c>
       <c r="Z24" s="2">
-        <v>113.05</v>
+        <v>3.08</v>
       </c>
       <c r="AA24" s="2">
-        <v>97.75</v>
+        <v>2.48</v>
       </c>
       <c r="AB24" s="2">
-        <v>105.4</v>
+        <v>2.78</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.67</v>
+        <v>-1.77</v>
       </c>
       <c r="AD24" s="2">
-        <v>-48.06</v>
+        <v>-32.77</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF24" s="2">
-        <v>109.88</v>
+        <v>2.92</v>
       </c>
       <c r="AG24" s="2">
-        <v>94.13</v>
+        <v>2.57</v>
       </c>
       <c r="AH24" s="2">
-        <v>116.71</v>
+        <v>3.14</v>
       </c>
       <c r="AI24" s="2">
-        <v>85.20999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="AJ24" s="2">
-        <v>125.63</v>
+        <v>3.26</v>
       </c>
       <c r="AK24" s="2">
-        <v>78.38</v>
+        <v>2.22</v>
       </c>
       <c r="AL24" s="2">
-        <v>102</v>
+        <v>2.74</v>
       </c>
       <c r="AM24" s="2">
-        <v>8.74</v>
+        <v>-5.84</v>
       </c>
       <c r="AN24" s="2">
-        <v>21.08</v>
+        <v>-25.09</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AP24" s="2">
-        <v>118.32</v>
+        <v>3.85</v>
       </c>
       <c r="AQ24" s="2">
-        <v>85.68000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="AR24" s="2">
-        <v>129.39</v>
+        <v>5.35</v>
       </c>
       <c r="AS24" s="2">
-        <v>64.09</v>
+        <v>0.9</v>
       </c>
       <c r="AT24" s="2">
-        <v>150.97</v>
+        <v>6.07</v>
       </c>
       <c r="AU24" s="2">
-        <v>53.03</v>
+        <v>-0.59</v>
       </c>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="2">
         <v>0</v>
       </c>
       <c r="AX24" s="2">
-        <v>66.48</v>
+        <v>41.3</v>
       </c>
       <c r="AY24" s="2">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>80.48999999999999</v>
+        <v>-67.04000000000001</v>
       </c>
       <c r="BA24" s="2">
-        <v>103.69</v>
+        <v>2.77</v>
       </c>
       <c r="BB24" s="2">
-        <v>102.39</v>
+        <v>2.8</v>
       </c>
       <c r="BC24" s="2">
-        <v>100.6</v>
+        <v>2.83</v>
       </c>
       <c r="BD24" s="2">
-        <v>97.86</v>
+        <v>2.89</v>
       </c>
       <c r="BE24" s="2">
-        <v>107.54</v>
+        <v>2.67</v>
       </c>
       <c r="BF24" s="2">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:58">
@@ -4959,180 +4962,356 @@
         <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
-        <v>7.9</v>
+        <v>102.2</v>
       </c>
       <c r="D25" s="3">
-        <v>8.109999999999999</v>
+        <v>105.4</v>
       </c>
       <c r="E25" s="3">
-        <v>7.89</v>
+        <v>102.2</v>
       </c>
       <c r="F25" s="3">
-        <v>8.1</v>
+        <v>105.4</v>
       </c>
       <c r="G25" s="3">
-        <v>16537189</v>
+        <v>11033581</v>
       </c>
       <c r="H25" s="3">
-        <v>8.050000000000001</v>
+        <v>104.6</v>
       </c>
       <c r="I25" s="3">
-        <v>8</v>
+        <v>104.58</v>
       </c>
       <c r="J25" s="3">
-        <v>7.96</v>
+        <v>100.96</v>
       </c>
       <c r="K25" s="3">
-        <v>7.72</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="L25" s="3">
-        <v>8.1</v>
+        <v>105.4</v>
       </c>
       <c r="M25" s="3">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="N25" s="3">
-        <v>112.42</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P25" s="3">
-        <v>8.210000000000001</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="3">
-        <v>7.99</v>
+        <v>103.8</v>
       </c>
       <c r="R25" s="3">
-        <v>8.27</v>
+        <v>107.8</v>
       </c>
       <c r="S25" s="3">
-        <v>7.83</v>
+        <v>101.4</v>
       </c>
       <c r="T25" s="3">
-        <v>8.43</v>
+        <v>110.2</v>
       </c>
       <c r="U25" s="3">
-        <v>7.77</v>
+        <v>100.6</v>
       </c>
       <c r="V25" s="3">
-        <v>8.300000000000001</v>
+        <v>107.95</v>
       </c>
       <c r="W25" s="3">
-        <v>7.9</v>
+        <v>102.85</v>
       </c>
       <c r="X25" s="3">
-        <v>8.41</v>
+        <v>109.68</v>
       </c>
       <c r="Y25" s="3">
-        <v>7.59</v>
+        <v>99.48</v>
       </c>
       <c r="Z25" s="3">
-        <v>8.710000000000001</v>
+        <v>113.05</v>
       </c>
       <c r="AA25" s="3">
-        <v>7.48</v>
+        <v>97.75</v>
       </c>
       <c r="AB25" s="3">
-        <v>8.1</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" s="3">
-        <v>3.58</v>
+        <v>0.67</v>
       </c>
       <c r="AD25" s="3">
-        <v>-21.24</v>
+        <v>-48.06</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF25" s="3">
-        <v>8.23</v>
+        <v>109.88</v>
       </c>
       <c r="AG25" s="3">
-        <v>7.49</v>
+        <v>94.13</v>
       </c>
       <c r="AH25" s="3">
-        <v>8.699999999999999</v>
+        <v>116.71</v>
       </c>
       <c r="AI25" s="3">
-        <v>7.22</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="AJ25" s="3">
-        <v>8.970000000000001</v>
+        <v>125.63</v>
       </c>
       <c r="AK25" s="3">
-        <v>6.75</v>
+        <v>78.38</v>
       </c>
       <c r="AL25" s="3">
-        <v>7.86</v>
+        <v>102</v>
       </c>
       <c r="AM25" s="3">
-        <v>-1.38</v>
+        <v>8.74</v>
       </c>
       <c r="AN25" s="3">
-        <v>9.029999999999999</v>
+        <v>21.08</v>
       </c>
       <c r="AO25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP25" s="3">
-        <v>9.81</v>
+        <v>118.32</v>
       </c>
       <c r="AQ25" s="3">
-        <v>5.91</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="AR25" s="3">
-        <v>11.61</v>
+        <v>129.39</v>
       </c>
       <c r="AS25" s="3">
-        <v>3.82</v>
+        <v>64.09</v>
       </c>
       <c r="AT25" s="3">
-        <v>13.71</v>
+        <v>150.97</v>
       </c>
       <c r="AU25" s="3">
-        <v>2.01</v>
+        <v>53.03</v>
       </c>
       <c r="AV25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="3">
         <v>0</v>
       </c>
       <c r="AX25" s="3">
+        <v>66.48</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>103.69</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>102.39</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>100.6</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>97.86</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>107.54</v>
+      </c>
+      <c r="BF25" s="3">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>16537189</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="K26" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="L26" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="N26" s="2">
+        <v>112.42</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="2">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="R26" s="2">
+        <v>8.27</v>
+      </c>
+      <c r="S26" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="T26" s="2">
+        <v>8.43</v>
+      </c>
+      <c r="U26" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="V26" s="2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W26" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="X26" s="2">
+        <v>8.41</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>-21.24</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>8.23</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>-1.38</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>11.61</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>13.71</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>2.01</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="2">
         <v>52.26</v>
       </c>
-      <c r="AY25" s="3">
+      <c r="AY26" s="2">
         <v>-0.03</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="AZ26" s="2">
         <v>-39.95</v>
       </c>
-      <c r="BA25" s="3">
+      <c r="BA26" s="2">
         <v>7.95</v>
       </c>
-      <c r="BB25" s="3">
+      <c r="BB26" s="2">
         <v>8.01</v>
       </c>
-      <c r="BC25" s="3">
+      <c r="BC26" s="2">
         <v>8.029999999999999</v>
       </c>
-      <c r="BD25" s="3">
+      <c r="BD26" s="2">
         <v>8.050000000000001</v>
       </c>
-      <c r="BE25" s="3">
+      <c r="BE26" s="2">
         <v>7.7</v>
       </c>
-      <c r="BF25" s="3">
+      <c r="BF26" s="2">
         <v>1.45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF25"/>
-  <conditionalFormatting sqref="AA2:AA25">
+  <autoFilter ref="A1:BF26"/>
+  <conditionalFormatting sqref="AA2:AA26">
     <cfRule type="expression" dxfId="0" priority="46">
       <formula>$F2&gt;$AA2</formula>
     </cfRule>
@@ -5143,7 +5322,7 @@
       <formula>$F2=$AA2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF25">
+  <conditionalFormatting sqref="AF2:AF26">
     <cfRule type="expression" dxfId="0" priority="49">
       <formula>$F2&gt;$AF2</formula>
     </cfRule>
@@ -5154,7 +5333,7 @@
       <formula>$F2=$AF2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG25">
+  <conditionalFormatting sqref="AG2:AG26">
     <cfRule type="expression" dxfId="0" priority="52">
       <formula>$F2&gt;$AG2</formula>
     </cfRule>
@@ -5165,7 +5344,7 @@
       <formula>$F2=$AG2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH25">
+  <conditionalFormatting sqref="AH2:AH26">
     <cfRule type="expression" dxfId="0" priority="55">
       <formula>$F2&gt;$AH2</formula>
     </cfRule>
@@ -5176,7 +5355,7 @@
       <formula>$F2=$AH2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI25">
+  <conditionalFormatting sqref="AI2:AI26">
     <cfRule type="expression" dxfId="0" priority="58">
       <formula>$F2&gt;$AI2</formula>
     </cfRule>
@@ -5187,7 +5366,7 @@
       <formula>$F2=$AI2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ25">
+  <conditionalFormatting sqref="AJ2:AJ26">
     <cfRule type="expression" dxfId="0" priority="61">
       <formula>$F2&gt;$AJ2</formula>
     </cfRule>
@@ -5198,7 +5377,7 @@
       <formula>$F2=$AJ2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK25">
+  <conditionalFormatting sqref="AK2:AK26">
     <cfRule type="expression" dxfId="0" priority="64">
       <formula>$F2&gt;$AK2</formula>
     </cfRule>
@@ -5209,7 +5388,7 @@
       <formula>$F2=$AK2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP25">
+  <conditionalFormatting sqref="AP2:AP26">
     <cfRule type="expression" dxfId="0" priority="67">
       <formula>$F2&gt;$AP2</formula>
     </cfRule>
@@ -5220,7 +5399,7 @@
       <formula>$F2=$AP2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ25">
+  <conditionalFormatting sqref="AQ2:AQ26">
     <cfRule type="expression" dxfId="0" priority="70">
       <formula>$F2&gt;$AQ2</formula>
     </cfRule>
@@ -5231,7 +5410,7 @@
       <formula>$F2=$AQ2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR25">
+  <conditionalFormatting sqref="AR2:AR26">
     <cfRule type="expression" dxfId="0" priority="73">
       <formula>$F2&gt;$AR2</formula>
     </cfRule>
@@ -5242,7 +5421,7 @@
       <formula>$F2=$AR2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS25">
+  <conditionalFormatting sqref="AS2:AS26">
     <cfRule type="expression" dxfId="0" priority="76">
       <formula>$F2&gt;$AS2</formula>
     </cfRule>
@@ -5253,7 +5432,7 @@
       <formula>$F2=$AS2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT25">
+  <conditionalFormatting sqref="AT2:AT26">
     <cfRule type="expression" dxfId="0" priority="79">
       <formula>$F2&gt;$AT2</formula>
     </cfRule>
@@ -5264,7 +5443,7 @@
       <formula>$F2=$AT2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU25">
+  <conditionalFormatting sqref="AU2:AU26">
     <cfRule type="expression" dxfId="0" priority="82">
       <formula>$F2&gt;$AU2</formula>
     </cfRule>
@@ -5275,7 +5454,7 @@
       <formula>$F2=$AU2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H25">
+  <conditionalFormatting sqref="H2:H26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2&gt;$H2</formula>
     </cfRule>
@@ -5286,7 +5465,7 @@
       <formula>$F2=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25">
+  <conditionalFormatting sqref="I2:I26">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F2&gt;$I2</formula>
     </cfRule>
@@ -5297,7 +5476,7 @@
       <formula>$F2=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25">
+  <conditionalFormatting sqref="J2:J26">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F2&gt;$J2</formula>
     </cfRule>
@@ -5308,7 +5487,7 @@
       <formula>$F2=$J2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K26">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F2&gt;$K2</formula>
     </cfRule>
@@ -5319,7 +5498,7 @@
       <formula>$F2=$K2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P25">
+  <conditionalFormatting sqref="P2:P26">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F2&gt;$P2</formula>
     </cfRule>
@@ -5330,7 +5509,7 @@
       <formula>$F2=$P2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q25">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F2&gt;$Q2</formula>
     </cfRule>
@@ -5341,7 +5520,7 @@
       <formula>$F2=$Q2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R25">
+  <conditionalFormatting sqref="R2:R26">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>$F2&gt;$R2</formula>
     </cfRule>
@@ -5352,7 +5531,7 @@
       <formula>$F2=$R2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S25">
+  <conditionalFormatting sqref="S2:S26">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>$F2&gt;$S2</formula>
     </cfRule>
@@ -5363,7 +5542,7 @@
       <formula>$F2=$S2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T25">
+  <conditionalFormatting sqref="T2:T26">
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>$F2&gt;$T2</formula>
     </cfRule>
@@ -5374,7 +5553,7 @@
       <formula>$F2=$T2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U25">
+  <conditionalFormatting sqref="U2:U26">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>$F2&gt;$U2</formula>
     </cfRule>
@@ -5385,7 +5564,7 @@
       <formula>$F2=$U2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V25">
+  <conditionalFormatting sqref="V2:V26">
     <cfRule type="expression" dxfId="0" priority="31">
       <formula>$F2&gt;$V2</formula>
     </cfRule>
@@ -5396,7 +5575,7 @@
       <formula>$F2=$V2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W25">
+  <conditionalFormatting sqref="W2:W26">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>$F2&gt;$W2</formula>
     </cfRule>
@@ -5407,7 +5586,7 @@
       <formula>$F2=$W2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X25">
+  <conditionalFormatting sqref="X2:X26">
     <cfRule type="expression" dxfId="0" priority="37">
       <formula>$F2&gt;$X2</formula>
     </cfRule>
@@ -5418,7 +5597,7 @@
       <formula>$F2=$X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y25">
+  <conditionalFormatting sqref="Y2:Y26">
     <cfRule type="expression" dxfId="0" priority="40">
       <formula>$F2&gt;$Y2</formula>
     </cfRule>
@@ -5429,7 +5608,7 @@
       <formula>$F2=$Y2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z25">
+  <conditionalFormatting sqref="Z2:Z26">
     <cfRule type="expression" dxfId="0" priority="43">
       <formula>$F2&gt;$Z2</formula>
     </cfRule>
@@ -5446,7 +5625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -5478,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -5516,7 +5695,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -5529,7 +5708,7 @@
         <v>220.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>19.68</v>
@@ -5538,7 +5717,7 @@
         <v>66.28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2">
         <v>1.99</v>
@@ -5547,7 +5726,7 @@
         <v>-30.52</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5555,10 +5734,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -5568,7 +5747,7 @@
         <v>48.49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
         <v>0.34</v>
@@ -5577,7 +5756,7 @@
         <v>-58.26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" s="3">
         <v>-0.14</v>
@@ -5586,7 +5765,7 @@
         <v>-12.94</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5594,7 +5773,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -5607,7 +5786,7 @@
         <v>18.81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2">
         <v>0.61</v>
@@ -5616,7 +5795,7 @@
         <v>-21.89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2">
         <v>0.26</v>
@@ -5625,7 +5804,7 @@
         <v>9.25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5633,10 +5812,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -5646,7 +5825,7 @@
         <v>11.57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3">
         <v>10.1</v>
@@ -5655,7 +5834,7 @@
         <v>76.81999999999999</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" s="3">
         <v>3.12</v>
@@ -5664,7 +5843,7 @@
         <v>-29.83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5672,7 +5851,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5683,7 +5862,7 @@
         <v>-33.09</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>-4.35</v>
@@ -5692,7 +5871,7 @@
         <v>-9.640000000000001</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2">
         <v>7.8</v>
@@ -5701,7 +5880,7 @@
         <v>10.45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5709,7 +5888,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -5722,7 +5901,7 @@
         <v>19.16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="3">
         <v>-1.36</v>
@@ -5731,7 +5910,7 @@
         <v>-38.78</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" s="3">
         <v>-4.6</v>
@@ -5740,7 +5919,7 @@
         <v>-15.35</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5748,7 +5927,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -5761,7 +5940,7 @@
         <v>-16.77</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2">
         <v>-1.18</v>
@@ -5770,7 +5949,7 @@
         <v>-18.2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2">
         <v>-0.51</v>
@@ -5779,7 +5958,7 @@
         <v>-28.65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5787,10 +5966,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -5800,7 +5979,7 @@
         <v>63.6</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="3">
         <v>0.54</v>
@@ -5809,7 +5988,7 @@
         <v>-3.95</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" s="3">
         <v>-0.31</v>
@@ -5818,7 +5997,7 @@
         <v>-17.82</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5826,11 +6005,11 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2">
         <v>-2.58</v>
@@ -5839,7 +6018,7 @@
         <v>27.41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2">
         <v>-5.77</v>
@@ -5848,7 +6027,7 @@
         <v>62.04</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2">
         <v>2.12</v>
@@ -5857,7 +6036,7 @@
         <v>-14.91</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5865,10 +6044,10 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -5878,7 +6057,7 @@
         <v>41.72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3">
         <v>3.38</v>
@@ -5887,7 +6066,7 @@
         <v>-14.92</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" s="3">
         <v>2.79</v>
@@ -5896,7 +6075,7 @@
         <v>-21.84</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5904,10 +6083,10 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -5917,7 +6096,7 @@
         <v>63.62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2">
         <v>2.93</v>
@@ -5926,7 +6105,7 @@
         <v>-63.09</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2">
         <v>-15.84</v>
@@ -5935,7 +6114,7 @@
         <v>22.48</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5943,7 +6122,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -5956,7 +6135,7 @@
         <v>-46</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>-2.35</v>
@@ -5965,7 +6144,7 @@
         <v>-15.82</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="3">
         <v>-12.31</v>
@@ -5974,7 +6153,7 @@
         <v>-4.17</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5982,7 +6161,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -5995,7 +6174,7 @@
         <v>49.78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2">
         <v>4.6</v>
@@ -6004,7 +6183,7 @@
         <v>16.03</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="2">
         <v>15.63</v>
@@ -6013,7 +6192,7 @@
         <v>-7.12</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6021,10 +6200,10 @@
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -6034,7 +6213,7 @@
         <v>17.12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3">
         <v>6.14</v>
@@ -6043,7 +6222,7 @@
         <v>-5.14</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" s="3">
         <v>7.8</v>
@@ -6052,7 +6231,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6060,7 +6239,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -6073,7 +6252,7 @@
         <v>-51.69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2">
         <v>-1.52</v>
@@ -6082,7 +6261,7 @@
         <v>2.11</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="2">
         <v>29.12</v>
@@ -6091,7 +6270,7 @@
         <v>39.75</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6099,7 +6278,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6110,7 +6289,7 @@
         <v>1.89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="3">
         <v>-5.13</v>
@@ -6119,7 +6298,7 @@
         <v>-61.41</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="3">
         <v>-0.88</v>
@@ -6128,7 +6307,7 @@
         <v>-28.43</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6136,7 +6315,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -6149,7 +6328,7 @@
         <v>-45.46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2">
         <v>-3.39</v>
@@ -6158,7 +6337,7 @@
         <v>-20.91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="2">
         <v>-5.35</v>
@@ -6167,7 +6346,7 @@
         <v>-36.34</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6175,10 +6354,10 @@
         <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
@@ -6188,7 +6367,7 @@
         <v>115.64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" s="3">
         <v>0.84</v>
@@ -6197,7 +6376,7 @@
         <v>-20.83</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" s="3">
         <v>-2.67</v>
@@ -6206,7 +6385,7 @@
         <v>-20.64</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -6214,38 +6393,38 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>2.95</v>
+        <v>1.47</v>
       </c>
       <c r="F20" s="2">
-        <v>-16.58</v>
+        <v>56.34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2">
-        <v>2.85</v>
+        <v>-0.86</v>
       </c>
       <c r="I20" s="2">
-        <v>-20.59</v>
+        <v>20.96</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2">
-        <v>-3.35</v>
+        <v>2.1</v>
       </c>
       <c r="L20" s="2">
-        <v>4.23</v>
+        <v>-2.26</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6253,38 +6432,38 @@
         <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <v>-4.97</v>
+        <v>2.95</v>
       </c>
       <c r="F21" s="3">
-        <v>-20.75</v>
+        <v>-16.58</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" s="3">
-        <v>1.32</v>
+        <v>2.85</v>
       </c>
       <c r="I21" s="3">
-        <v>-12.39</v>
+        <v>-20.59</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" s="3">
-        <v>37.57</v>
+        <v>-3.35</v>
       </c>
       <c r="L21" s="3">
-        <v>19.37</v>
+        <v>4.23</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6292,38 +6471,38 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2">
-        <v>-6.62</v>
+        <v>-4.97</v>
       </c>
       <c r="F22" s="2">
-        <v>190.15</v>
+        <v>-20.75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2">
-        <v>7.43</v>
+        <v>1.32</v>
       </c>
       <c r="I22" s="2">
-        <v>44.22</v>
+        <v>-12.39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" s="2">
-        <v>58.73</v>
+        <v>37.57</v>
       </c>
       <c r="L22" s="2">
-        <v>476.12</v>
+        <v>19.37</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6331,33 +6510,35 @@
         <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E23" s="3">
-        <v>1.46</v>
+        <v>-6.62</v>
       </c>
       <c r="F23" s="3">
-        <v>26.59</v>
+        <v>190.15</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H23" s="3">
-        <v>-1.77</v>
+        <v>7.43</v>
       </c>
       <c r="I23" s="3">
-        <v>-32.77</v>
+        <v>44.22</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K23" s="3">
-        <v>-5.84</v>
+        <v>58.73</v>
       </c>
       <c r="L23" s="3">
-        <v>-25.09</v>
+        <v>476.12</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>84</v>
@@ -6368,38 +6549,36 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>3.33</v>
+        <v>1.46</v>
       </c>
       <c r="F24" s="2">
-        <v>67.98999999999999</v>
+        <v>26.59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2">
-        <v>0.67</v>
+        <v>-1.77</v>
       </c>
       <c r="I24" s="2">
-        <v>-48.06</v>
+        <v>-32.77</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" s="2">
-        <v>8.74</v>
+        <v>-5.84</v>
       </c>
       <c r="L24" s="2">
-        <v>21.08</v>
+        <v>-25.09</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -6407,42 +6586,81 @@
         <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="F25" s="3">
-        <v>112.42</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3">
-        <v>3.58</v>
+        <v>0.67</v>
       </c>
       <c r="I25" s="3">
-        <v>-21.24</v>
+        <v>-48.06</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" s="3">
-        <v>-1.38</v>
+        <v>8.74</v>
       </c>
       <c r="L25" s="3">
-        <v>9.029999999999999</v>
+        <v>21.08</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="F26" s="2">
+        <v>112.42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-21.24</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="2">
+        <v>-1.38</v>
+      </c>
+      <c r="L26" s="2">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M25"/>
+  <autoFilter ref="A1:M26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PivotHesaplama_020126.xlsx
+++ b/PivotHesaplama_020126.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Kesisim_Sinyalleri" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kesisim_Sinyalleri!$A$1:$M$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pivot_Raporu!$A$1:$BF$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kesisim_Sinyalleri!$A$1:$M$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pivot_Raporu!$A$1:$BF$86</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="164">
   <si>
     <t>Tarih</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>YYAPI</t>
+  </si>
+  <si>
+    <t>YYLGD</t>
   </si>
   <si>
     <t>ZEDUR</t>
@@ -901,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF85"/>
+  <dimension ref="A1:BF86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1118,7 +1121,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2">
         <v>96.55</v>
@@ -1157,7 +1160,7 @@
         <v>37.77</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P2" s="2">
         <v>97.81999999999999</v>
@@ -1205,7 +1208,7 @@
         <v>18.93</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF2" s="2">
         <v>107.78</v>
@@ -1235,7 +1238,7 @@
         <v>96.68000000000001</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP2" s="2">
         <v>120.35</v>
@@ -1294,7 +1297,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3">
         <v>299.75</v>
@@ -1333,7 +1336,7 @@
         <v>92.44</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P3" s="3">
         <v>295.12</v>
@@ -1381,7 +1384,7 @@
         <v>-58.13</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF3" s="3">
         <v>377.25</v>
@@ -1411,7 +1414,7 @@
         <v>656.65</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP3" s="3">
         <v>474.88</v>
@@ -1470,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2">
         <v>100.3</v>
@@ -1509,7 +1512,7 @@
         <v>9.17</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P4" s="2">
         <v>103.3</v>
@@ -1557,7 +1560,7 @@
         <v>22.01</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF4" s="2">
         <v>105.2</v>
@@ -1587,7 +1590,7 @@
         <v>-33.74</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP4" s="2">
         <v>128.75</v>
@@ -1646,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3">
         <v>20.6</v>
@@ -1685,7 +1688,7 @@
         <v>352.43</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P5" s="3">
         <v>23.47</v>
@@ -1733,7 +1736,7 @@
         <v>19.55</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF5" s="3">
         <v>21.46</v>
@@ -1763,7 +1766,7 @@
         <v>-29.7</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP5" s="3">
         <v>29.39</v>
@@ -1822,7 +1825,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2">
         <v>248.4</v>
@@ -1861,7 +1864,7 @@
         <v>25.26</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P6" s="2">
         <v>264.47</v>
@@ -1909,7 +1912,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF6" s="2">
         <v>261.58</v>
@@ -1939,7 +1942,7 @@
         <v>-15.48</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP6" s="2">
         <v>314.58</v>
@@ -1998,7 +2001,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3">
         <v>41.26</v>
@@ -2037,7 +2040,7 @@
         <v>-27.86</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P7" s="3">
         <v>42.38</v>
@@ -2085,7 +2088,7 @@
         <v>-44.11</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF7" s="3">
         <v>47.42</v>
@@ -2115,7 +2118,7 @@
         <v>15.61</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP7" s="3">
         <v>53.71</v>
@@ -2174,7 +2177,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2">
         <v>41.72</v>
@@ -2213,7 +2216,7 @@
         <v>-7.59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P8" s="2">
         <v>41.75</v>
@@ -2261,7 +2264,7 @@
         <v>-37.38</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF8" s="2">
         <v>43.95</v>
@@ -2291,7 +2294,7 @@
         <v>-40.69</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP8" s="2">
         <v>52.25</v>
@@ -2350,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3">
         <v>94.2</v>
@@ -2389,7 +2392,7 @@
         <v>40.43</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P9" s="3">
         <v>97.15000000000001</v>
@@ -2437,7 +2440,7 @@
         <v>-51.83</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF9" s="3">
         <v>106.55</v>
@@ -2467,7 +2470,7 @@
         <v>-26.15</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP9" s="3">
         <v>117.53</v>
@@ -2526,7 +2529,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2">
         <v>525.5</v>
@@ -2565,7 +2568,7 @@
         <v>1088.92</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" s="2">
         <v>551.5</v>
@@ -2613,7 +2616,7 @@
         <v>-37.71</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF10" s="2">
         <v>721.75</v>
@@ -2643,7 +2646,7 @@
         <v>17.17</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP10" s="2">
         <v>1006.35</v>
@@ -2702,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3">
         <v>16.13</v>
@@ -2741,7 +2744,7 @@
         <v>72.19</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" s="3">
         <v>16.24</v>
@@ -2789,7 +2792,7 @@
         <v>-32.65</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF11" s="3">
         <v>17.02</v>
@@ -2819,7 +2822,7 @@
         <v>-28.51</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP11" s="3">
         <v>22.7</v>
@@ -2878,7 +2881,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2">
         <v>105.7</v>
@@ -2917,7 +2920,7 @@
         <v>6.67</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12" s="2">
         <v>109.6</v>
@@ -2965,7 +2968,7 @@
         <v>-49.13</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF12" s="2">
         <v>115.07</v>
@@ -2995,7 +2998,7 @@
         <v>-15.91</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP12" s="2">
         <v>129.12</v>
@@ -3054,7 +3057,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3">
         <v>12.43</v>
@@ -3093,7 +3096,7 @@
         <v>20.22</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P13" s="3">
         <v>13.05</v>
@@ -3141,7 +3144,7 @@
         <v>61.57</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF13" s="3">
         <v>13</v>
@@ -3171,7 +3174,7 @@
         <v>-25.5</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP13" s="3">
         <v>14.92</v>
@@ -3230,7 +3233,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2">
         <v>1.08</v>
@@ -3269,7 +3272,7 @@
         <v>58.4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P14" s="2">
         <v>1.13</v>
@@ -3317,7 +3320,7 @@
         <v>-17.16</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF14" s="2">
         <v>1.17</v>
@@ -3347,7 +3350,7 @@
         <v>-34.23</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP14" s="2">
         <v>1.51</v>
@@ -3406,7 +3409,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3">
         <v>57.45</v>
@@ -3445,7 +3448,7 @@
         <v>-1.86</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15" s="3">
         <v>58.55</v>
@@ -3493,7 +3496,7 @@
         <v>7.11</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF15" s="3">
         <v>59.18</v>
@@ -3523,7 +3526,7 @@
         <v>-29.67</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP15" s="3">
         <v>67.33</v>
@@ -3582,7 +3585,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2">
         <v>519.5</v>
@@ -3621,7 +3624,7 @@
         <v>-23.7</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P16" s="2">
         <v>530</v>
@@ -3669,7 +3672,7 @@
         <v>56.66</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF16" s="2">
         <v>534</v>
@@ -3699,7 +3702,7 @@
         <v>15.69</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP16" s="2">
         <v>698</v>
@@ -3758,7 +3761,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="3">
         <v>4.81</v>
@@ -3797,7 +3800,7 @@
         <v>-19.25</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P17" s="3">
         <v>4.94</v>
@@ -3845,7 +3848,7 @@
         <v>-15.85</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF17" s="3">
         <v>5.3</v>
@@ -3875,7 +3878,7 @@
         <v>145.41</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP17" s="3">
         <v>6.53</v>
@@ -3934,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2">
         <v>2.48</v>
@@ -3973,7 +3976,7 @@
         <v>362.42</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P18" s="2">
         <v>2.65</v>
@@ -4021,7 +4024,7 @@
         <v>43.91</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF18" s="2">
         <v>2.58</v>
@@ -4051,7 +4054,7 @@
         <v>-29.33</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP18" s="2">
         <v>3.7</v>
@@ -4110,7 +4113,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3">
         <v>184.5</v>
@@ -4149,7 +4152,7 @@
         <v>-17.64</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P19" s="3">
         <v>188.45</v>
@@ -4197,7 +4200,7 @@
         <v>-30.22</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF19" s="3">
         <v>194.05</v>
@@ -4227,7 +4230,7 @@
         <v>-8.42</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP19" s="3">
         <v>230.4</v>
@@ -4286,7 +4289,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2">
         <v>7.1</v>
@@ -4325,7 +4328,7 @@
         <v>3.71</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="2">
         <v>7.27</v>
@@ -4373,7 +4376,7 @@
         <v>-24.62</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF20" s="2">
         <v>7.52</v>
@@ -4403,7 +4406,7 @@
         <v>-55.46</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP20" s="2">
         <v>29.1</v>
@@ -4462,7 +4465,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="3">
         <v>26.86</v>
@@ -4501,7 +4504,7 @@
         <v>-42.14</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" s="3">
         <v>27.92</v>
@@ -4549,7 +4552,7 @@
         <v>-58.29</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF21" s="3">
         <v>29.69</v>
@@ -4579,7 +4582,7 @@
         <v>27.71</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP21" s="3">
         <v>42.02</v>
@@ -4638,7 +4641,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2">
         <v>11.57</v>
@@ -4677,7 +4680,7 @@
         <v>-53.83</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="2">
         <v>11.74</v>
@@ -4725,7 +4728,7 @@
         <v>94.72</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF22" s="2">
         <v>12.88</v>
@@ -4755,7 +4758,7 @@
         <v>2.95</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP22" s="2">
         <v>15.15</v>
@@ -4814,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3">
         <v>1768</v>
@@ -4853,7 +4856,7 @@
         <v>-56.66</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P23" s="3">
         <v>1862.5</v>
@@ -4901,7 +4904,7 @@
         <v>-65.43000000000001</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF23" s="3">
         <v>2068.5</v>
@@ -4931,7 +4934,7 @@
         <v>126.96</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP23" s="3">
         <v>2697.75</v>
@@ -4990,7 +4993,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2">
         <v>28</v>
@@ -5029,7 +5032,7 @@
         <v>72.55</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P24" s="2">
         <v>28.67</v>
@@ -5077,7 +5080,7 @@
         <v>-11.07</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF24" s="2">
         <v>32.26</v>
@@ -5107,7 +5110,7 @@
         <v>-28.17</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP24" s="2">
         <v>39.62</v>
@@ -5166,7 +5169,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3">
         <v>108.3</v>
@@ -5205,7 +5208,7 @@
         <v>12.86</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P25" s="3">
         <v>113.85</v>
@@ -5253,7 +5256,7 @@
         <v>-20.77</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF25" s="3">
         <v>114.1</v>
@@ -5283,7 +5286,7 @@
         <v>-0.44</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP25" s="3">
         <v>130.65</v>
@@ -5342,7 +5345,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2">
         <v>3.63</v>
@@ -5381,7 +5384,7 @@
         <v>84.41</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P26" s="2">
         <v>3.84</v>
@@ -5429,7 +5432,7 @@
         <v>-31.82</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF26" s="2">
         <v>3.93</v>
@@ -5459,7 +5462,7 @@
         <v>-53.93</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP26" s="2">
         <v>4.4</v>
@@ -5518,7 +5521,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3">
         <v>162.2</v>
@@ -5557,7 +5560,7 @@
         <v>-16.82</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P27" s="3">
         <v>167.25</v>
@@ -5605,7 +5608,7 @@
         <v>-56.7</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF27" s="3">
         <v>173.75</v>
@@ -5635,7 +5638,7 @@
         <v>-12.52</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP27" s="3">
         <v>226.1</v>
@@ -5694,7 +5697,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2">
         <v>6.53</v>
@@ -5733,7 +5736,7 @@
         <v>73.77</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P28" s="2">
         <v>6.94</v>
@@ -5781,7 +5784,7 @@
         <v>14.9</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF28" s="2">
         <v>6.84</v>
@@ -5811,7 +5814,7 @@
         <v>-13.38</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP28" s="2">
         <v>8.31</v>
@@ -5870,7 +5873,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3">
         <v>16.5</v>
@@ -5909,7 +5912,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P29" s="3">
         <v>15.95</v>
@@ -5957,7 +5960,7 @@
         <v>12.6</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF29" s="3">
         <v>17.9</v>
@@ -5987,7 +5990,7 @@
         <v>59.84</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP29" s="3">
         <v>19.39</v>
@@ -6046,7 +6049,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2">
         <v>3.06</v>
@@ -6085,7 +6088,7 @@
         <v>-28.95</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P30" s="2">
         <v>3.09</v>
@@ -6133,7 +6136,7 @@
         <v>-74.47</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF30" s="2">
         <v>3.57</v>
@@ -6163,7 +6166,7 @@
         <v>38.23</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP30" s="2">
         <v>5.66</v>
@@ -6222,7 +6225,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3">
         <v>31</v>
@@ -6261,7 +6264,7 @@
         <v>55.87</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P31" s="3">
         <v>32.12</v>
@@ -6309,7 +6312,7 @@
         <v>-35.21</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF31" s="3">
         <v>33.23</v>
@@ -6339,7 +6342,7 @@
         <v>2.02</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP31" s="3">
         <v>37.51</v>
@@ -6398,7 +6401,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2">
         <v>11.28</v>
@@ -6437,7 +6440,7 @@
         <v>88.29000000000001</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P32" s="2">
         <v>11.96</v>
@@ -6485,7 +6488,7 @@
         <v>-27.32</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF32" s="2">
         <v>13.54</v>
@@ -6568,7 +6571,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="3">
         <v>1.85</v>
@@ -6607,7 +6610,7 @@
         <v>179.21</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P33" s="3">
         <v>1.93</v>
@@ -6655,7 +6658,7 @@
         <v>-7.13</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF33" s="3">
         <v>1.98</v>
@@ -6685,7 +6688,7 @@
         <v>-54.2</v>
       </c>
       <c r="AO33" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP33" s="3">
         <v>2.46</v>
@@ -6744,7 +6747,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2">
         <v>57.1</v>
@@ -6783,7 +6786,7 @@
         <v>62.04</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P34" s="2">
         <v>59.02</v>
@@ -6831,7 +6834,7 @@
         <v>-53.09</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF34" s="2">
         <v>59.92</v>
@@ -6861,7 +6864,7 @@
         <v>-29.75</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP34" s="2">
         <v>75.40000000000001</v>
@@ -6920,7 +6923,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3">
         <v>41.18</v>
@@ -6959,7 +6962,7 @@
         <v>-13.39</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P35" s="3">
         <v>43.93</v>
@@ -7007,7 +7010,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF35" s="3">
         <v>49.49</v>
@@ -7037,7 +7040,7 @@
         <v>154.53</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP35" s="3">
         <v>61.62</v>
@@ -7096,7 +7099,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2">
         <v>16.94</v>
@@ -7135,7 +7138,7 @@
         <v>-23.06</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P36" s="2">
         <v>17</v>
@@ -7183,7 +7186,7 @@
         <v>-77.81999999999999</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF36" s="2">
         <v>18.35</v>
@@ -7213,7 +7216,7 @@
         <v>233.35</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP36" s="2">
         <v>22.63</v>
@@ -7272,7 +7275,7 @@
         <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3">
         <v>355</v>
@@ -7311,7 +7314,7 @@
         <v>-3.89</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P37" s="3">
         <v>348.25</v>
@@ -7359,7 +7362,7 @@
         <v>-43.71</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF37" s="3">
         <v>444</v>
@@ -7389,7 +7392,7 @@
         <v>27.49</v>
       </c>
       <c r="AO37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP37" s="3">
         <v>546.4</v>
@@ -7448,7 +7451,7 @@
         <v>94</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2">
         <v>7.81</v>
@@ -7487,7 +7490,7 @@
         <v>23.76</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P38" s="2">
         <v>8.039999999999999</v>
@@ -7535,7 +7538,7 @@
         <v>-37.21</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF38" s="2">
         <v>8.35</v>
@@ -7565,7 +7568,7 @@
         <v>-51.78</v>
       </c>
       <c r="AO38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP38" s="2">
         <v>12.64</v>
@@ -7624,7 +7627,7 @@
         <v>95</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3">
         <v>28.7</v>
@@ -7663,7 +7666,7 @@
         <v>-14.82</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P39" s="3">
         <v>29.8</v>
@@ -7711,7 +7714,7 @@
         <v>-4.63</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF39" s="3">
         <v>31.8</v>
@@ -7741,7 +7744,7 @@
         <v>-36.27</v>
       </c>
       <c r="AO39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP39" s="3">
         <v>51.1</v>
@@ -7800,7 +7803,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="2">
         <v>34.2</v>
@@ -7839,7 +7842,7 @@
         <v>-27.7</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P40" s="2">
         <v>38.8</v>
@@ -7887,7 +7890,7 @@
         <v>-28.03</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF40" s="2">
         <v>48.98</v>
@@ -7917,7 +7920,7 @@
         <v>217.94</v>
       </c>
       <c r="AO40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP40" s="2">
         <v>51.72</v>
@@ -7976,7 +7979,7 @@
         <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" s="3">
         <v>33.18</v>
@@ -8015,7 +8018,7 @@
         <v>-20.82</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P41" s="3">
         <v>33.63</v>
@@ -8063,7 +8066,7 @@
         <v>-34.5</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF41" s="3">
         <v>38.99</v>
@@ -8093,7 +8096,7 @@
         <v>-12.73</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP41" s="3">
         <v>45.74</v>
@@ -8152,7 +8155,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2">
         <v>2.4</v>
@@ -8191,7 +8194,7 @@
         <v>12.39</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P42" s="2">
         <v>2.55</v>
@@ -8239,7 +8242,7 @@
         <v>-21.62</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF42" s="2">
         <v>2.74</v>
@@ -8269,7 +8272,7 @@
         <v>8.31</v>
       </c>
       <c r="AO42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP42" s="2">
         <v>3.53</v>
@@ -8328,7 +8331,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="3">
         <v>89.55</v>
@@ -8367,7 +8370,7 @@
         <v>139.95</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P43" s="3">
         <v>94.72</v>
@@ -8415,7 +8418,7 @@
         <v>50.84</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF43" s="3">
         <v>96.3</v>
@@ -8445,7 +8448,7 @@
         <v>-31.64</v>
       </c>
       <c r="AO43" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP43" s="3">
         <v>498.66</v>
@@ -8504,7 +8507,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2">
         <v>16615.9</v>
@@ -8543,7 +8546,7 @@
         <v>23.34</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P44" s="2">
         <v>17559.07</v>
@@ -8591,7 +8594,7 @@
         <v>-19.04</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF44" s="2">
         <v>17222.68</v>
@@ -8621,7 +8624,7 @@
         <v>18.86</v>
       </c>
       <c r="AO44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP44" s="2">
         <v>19469.81</v>
@@ -8662,7 +8665,7 @@
         <v>101</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" s="3">
         <v>5068.34</v>
@@ -8808,7 +8811,7 @@
         <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2">
         <v>661.41</v>
@@ -8954,7 +8957,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="3">
         <v>18574.26</v>
@@ -9100,7 +9103,7 @@
         <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2">
         <v>12478.65</v>
@@ -9246,7 +9249,7 @@
         <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3">
         <v>5781.57</v>
@@ -9392,7 +9395,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2">
         <v>12909.72</v>
@@ -9538,7 +9541,7 @@
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="3">
         <v>2467.67</v>
@@ -9684,7 +9687,7 @@
         <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2">
         <v>17533.75</v>
@@ -9830,7 +9833,7 @@
         <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" s="3">
         <v>7031.84</v>
@@ -9976,7 +9979,7 @@
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2">
         <v>12818.96</v>
@@ -10122,7 +10125,7 @@
         <v>111</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3">
         <v>12357</v>
@@ -10268,7 +10271,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2">
         <v>17812.02</v>
@@ -10414,7 +10417,7 @@
         <v>113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="3">
         <v>20292.55</v>
@@ -10560,7 +10563,7 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2">
         <v>68629.87</v>
@@ -10706,7 +10709,7 @@
         <v>115</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="3">
         <v>12998.21</v>
@@ -10852,7 +10855,7 @@
         <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2">
         <v>4828.2</v>
@@ -10998,7 +11001,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" s="3">
         <v>1640</v>
@@ -11144,7 +11147,7 @@
         <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2">
         <v>12269.72</v>
@@ -11183,7 +11186,7 @@
         <v>40.94</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P62" s="2">
         <v>12636.11</v>
@@ -11231,7 +11234,7 @@
         <v>-23.37</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF62" s="2">
         <v>12571.76</v>
@@ -11261,7 +11264,7 @@
         <v>-5.72</v>
       </c>
       <c r="AO62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP62" s="2">
         <v>13770.03</v>
@@ -11302,7 +11305,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="3">
         <v>11296.52</v>
@@ -11341,7 +11344,7 @@
         <v>37.3</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P63" s="3">
         <v>11599.31</v>
@@ -11389,7 +11392,7 @@
         <v>-21.67</v>
       </c>
       <c r="AE63" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF63" s="3">
         <v>11561.5</v>
@@ -11419,7 +11422,7 @@
         <v>-14.31</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP63" s="3">
         <v>12627.79</v>
@@ -11460,7 +11463,7 @@
         <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2">
         <v>10580.78</v>
@@ -11606,7 +11609,7 @@
         <v>121</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="3">
         <v>34748.94</v>
@@ -11752,7 +11755,7 @@
         <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2">
         <v>16362.2</v>
@@ -11898,7 +11901,7 @@
         <v>123</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="3">
         <v>14053.64</v>
@@ -12044,7 +12047,7 @@
         <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2">
         <v>28766.81</v>
@@ -12190,7 +12193,7 @@
         <v>125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3">
         <v>269.25</v>
@@ -12229,7 +12232,7 @@
         <v>31.08</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P69" s="3">
         <v>276.25</v>
@@ -12277,7 +12280,7 @@
         <v>-57.88</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF69" s="3">
         <v>322.2</v>
@@ -12307,7 +12310,7 @@
         <v>436.9</v>
       </c>
       <c r="AO69" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP69" s="3">
         <v>620.25</v>
@@ -12366,7 +12369,7 @@
         <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2">
         <v>40.02</v>
@@ -12405,7 +12408,7 @@
         <v>77.55</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P70" s="2">
         <v>41.13</v>
@@ -12453,7 +12456,7 @@
         <v>-37.02</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF70" s="2">
         <v>43</v>
@@ -12483,7 +12486,7 @@
         <v>62.48</v>
       </c>
       <c r="AO70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP70" s="2">
         <v>48.6</v>
@@ -12542,7 +12545,7 @@
         <v>127</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="3">
         <v>28.2</v>
@@ -12581,7 +12584,7 @@
         <v>82.87</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P71" s="3">
         <v>28.71</v>
@@ -12629,7 +12632,7 @@
         <v>-14.14</v>
       </c>
       <c r="AE71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF71" s="3">
         <v>32.64</v>
@@ -12659,7 +12662,7 @@
         <v>-24.87</v>
       </c>
       <c r="AO71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP71" s="3">
         <v>42.49</v>
@@ -12718,7 +12721,7 @@
         <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2">
         <v>21.32</v>
@@ -12757,7 +12760,7 @@
         <v>-27.57</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P72" s="2">
         <v>21.74</v>
@@ -12805,7 +12808,7 @@
         <v>-28.15</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF72" s="2">
         <v>23.47</v>
@@ -12835,7 +12838,7 @@
         <v>-19.68</v>
       </c>
       <c r="AO72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP72" s="2">
         <v>48.63</v>
@@ -12894,7 +12897,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="3">
         <v>36.54</v>
@@ -12933,7 +12936,7 @@
         <v>53.06</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P73" s="3">
         <v>37.43</v>
@@ -12981,7 +12984,7 @@
         <v>-35.27</v>
       </c>
       <c r="AE73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF73" s="3">
         <v>38.66</v>
@@ -13011,7 +13014,7 @@
         <v>-29.76</v>
       </c>
       <c r="AO73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP73" s="3">
         <v>50.94</v>
@@ -13070,7 +13073,7 @@
         <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2">
         <v>1.96</v>
@@ -13109,7 +13112,7 @@
         <v>37.06</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P74" s="2">
         <v>2</v>
@@ -13157,7 +13160,7 @@
         <v>-68</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF74" s="2">
         <v>2.16</v>
@@ -13187,7 +13190,7 @@
         <v>-54.36</v>
       </c>
       <c r="AO74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP74" s="2">
         <v>3.07</v>
@@ -13246,7 +13249,7 @@
         <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="3">
         <v>131</v>
@@ -13285,7 +13288,7 @@
         <v>-29.24</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P75" s="3">
         <v>135.1</v>
@@ -13333,7 +13336,7 @@
         <v>52.7</v>
       </c>
       <c r="AE75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF75" s="3">
         <v>137.05</v>
@@ -13363,7 +13366,7 @@
         <v>-8.66</v>
       </c>
       <c r="AO75" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP75" s="3">
         <v>171.68</v>
@@ -13422,7 +13425,7 @@
         <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2">
         <v>22.96</v>
@@ -13461,7 +13464,7 @@
         <v>-40.86</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P76" s="2">
         <v>23.58</v>
@@ -13509,7 +13512,7 @@
         <v>-18.89</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF76" s="2">
         <v>23.98</v>
@@ -13539,7 +13542,7 @@
         <v>-19.6</v>
       </c>
       <c r="AO76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP76" s="2">
         <v>31.03</v>
@@ -13598,7 +13601,7 @@
         <v>133</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="3">
         <v>36.38</v>
@@ -13637,7 +13640,7 @@
         <v>52.21</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P77" s="3">
         <v>39.07</v>
@@ -13685,7 +13688,7 @@
         <v>-21.01</v>
       </c>
       <c r="AE77" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF77" s="3">
         <v>37.64</v>
@@ -13715,7 +13718,7 @@
         <v>23.26</v>
       </c>
       <c r="AO77" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP77" s="3">
         <v>44.08</v>
@@ -13774,7 +13777,7 @@
         <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2">
         <v>3.23</v>
@@ -13813,7 +13816,7 @@
         <v>26.76</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P78" s="2">
         <v>3.24</v>
@@ -13861,7 +13864,7 @@
         <v>-26.94</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF78" s="2">
         <v>3.47</v>
@@ -13891,7 +13894,7 @@
         <v>138.94</v>
       </c>
       <c r="AO78" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP78" s="2">
         <v>4.6</v>
@@ -13950,7 +13953,7 @@
         <v>135</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3">
         <v>59</v>
@@ -13989,7 +13992,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P79" s="3">
         <v>59.07</v>
@@ -14037,7 +14040,7 @@
         <v>-22.82</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF79" s="3">
         <v>66</v>
@@ -14067,7 +14070,7 @@
         <v>59.78</v>
       </c>
       <c r="AO79" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP79" s="3">
         <v>82.59999999999999</v>
@@ -14126,7 +14129,7 @@
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2">
         <v>7.59</v>
@@ -14165,7 +14168,7 @@
         <v>49.7</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P80" s="2">
         <v>7.72</v>
@@ -14213,7 +14216,7 @@
         <v>-24.33</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF80" s="2">
         <v>8.220000000000001</v>
@@ -14243,7 +14246,7 @@
         <v>-65.68000000000001</v>
       </c>
       <c r="AO80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP80" s="2">
         <v>10.09</v>
@@ -14302,7 +14305,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C81" s="3">
         <v>1.85</v>
@@ -14341,7 +14344,7 @@
         <v>5.63</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P81" s="3">
         <v>1.92</v>
@@ -14389,7 +14392,7 @@
         <v>-62.84</v>
       </c>
       <c r="AE81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF81" s="3">
         <v>2.04</v>
@@ -14419,7 +14422,7 @@
         <v>-37.06</v>
       </c>
       <c r="AO81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP81" s="3">
         <v>2.97</v>
@@ -14478,175 +14481,175 @@
         <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2">
-        <v>8.15</v>
+        <v>9.75</v>
       </c>
       <c r="D82" s="2">
-        <v>8.27</v>
+        <v>9.93</v>
       </c>
       <c r="E82" s="2">
-        <v>8.119999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="F82" s="2">
-        <v>8.26</v>
+        <v>9.92</v>
       </c>
       <c r="G82" s="2">
-        <v>943305</v>
+        <v>3125995</v>
       </c>
       <c r="H82" s="2">
-        <v>8.23</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I82" s="2">
+        <v>9.82</v>
+      </c>
+      <c r="J82" s="2">
+        <v>9.84</v>
+      </c>
+      <c r="K82" s="2">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="L82" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="M82" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="N82" s="2">
+        <v>-13.87</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P82" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>9.82</v>
+      </c>
+      <c r="R82" s="2">
+        <v>10.07</v>
+      </c>
+      <c r="S82" s="2">
+        <v>9.68</v>
+      </c>
+      <c r="T82" s="2">
+        <v>10.22</v>
+      </c>
+      <c r="U82" s="2">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="V82" s="2">
+        <v>10.16</v>
+      </c>
+      <c r="W82" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="X82" s="2">
+        <v>10.31</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>10.65</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>-1.18</v>
+      </c>
+      <c r="AE82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>10.82</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="AK82" s="2">
         <v>8.24</v>
       </c>
-      <c r="J82" s="2">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="K82" s="2">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="L82" s="2">
-        <v>8.26</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="N82" s="2">
-        <v>5.81</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P82" s="2">
-        <v>8.33</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>8.18</v>
-      </c>
-      <c r="R82" s="2">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="S82" s="2">
-        <v>8.08</v>
-      </c>
-      <c r="T82" s="2">
-        <v>8.48</v>
-      </c>
-      <c r="U82" s="2">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="V82" s="2">
-        <v>8.44</v>
-      </c>
-      <c r="W82" s="2">
-        <v>8.08</v>
-      </c>
-      <c r="X82" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="Y82" s="2">
-        <v>7.87</v>
-      </c>
-      <c r="Z82" s="2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA82" s="2">
-        <v>7.72</v>
-      </c>
-      <c r="AB82" s="2">
-        <v>8.26</v>
-      </c>
-      <c r="AC82" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>-39.96</v>
-      </c>
-      <c r="AE82" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF82" s="2">
-        <v>8.69</v>
-      </c>
-      <c r="AG82" s="2">
-        <v>7.53</v>
-      </c>
-      <c r="AH82" s="2">
-        <v>9.52</v>
-      </c>
-      <c r="AI82" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="AJ82" s="2">
-        <v>9.85</v>
-      </c>
-      <c r="AK82" s="2">
-        <v>6.37</v>
-      </c>
       <c r="AL82" s="2">
-        <v>8.109999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AM82" s="2">
-        <v>-0.86</v>
+        <v>-3</v>
       </c>
       <c r="AN82" s="2">
-        <v>-16.58</v>
+        <v>-24.21</v>
       </c>
       <c r="AO82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP82" s="2">
-        <v>10.4</v>
+        <v>11.52</v>
       </c>
       <c r="AQ82" s="2">
-        <v>5.82</v>
+        <v>7.91</v>
       </c>
       <c r="AR82" s="2">
-        <v>12.96</v>
+        <v>13.48</v>
       </c>
       <c r="AS82" s="2">
-        <v>3.78</v>
+        <v>6.26</v>
       </c>
       <c r="AT82" s="2">
-        <v>15</v>
+        <v>15.12</v>
       </c>
       <c r="AU82" s="2">
-        <v>1.22</v>
+        <v>4.3</v>
       </c>
       <c r="AV82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW82" s="2">
         <v>0</v>
       </c>
       <c r="AX82" s="2">
-        <v>44.01</v>
+        <v>46.41</v>
       </c>
       <c r="AY82" s="2">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="AZ82" s="2">
-        <v>-94.59</v>
+        <v>-63.86</v>
       </c>
       <c r="BA82" s="2">
-        <v>8.23</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="BB82" s="2">
-        <v>8.359999999999999</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="BC82" s="2">
-        <v>8.4</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="BD82" s="2">
-        <v>8.44</v>
+        <v>10.09</v>
       </c>
       <c r="BE82" s="2">
-        <v>8.779999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="BF82" s="2">
-        <v>0.73</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="83" spans="1:58">
@@ -14654,155 +14657,175 @@
         <v>139</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="3">
-        <v>9.93</v>
+        <v>8.15</v>
       </c>
       <c r="D83" s="3">
-        <v>10.24</v>
+        <v>8.27</v>
       </c>
       <c r="E83" s="3">
-        <v>9.880000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F83" s="3">
-        <v>9.970000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="G83" s="3">
-        <v>31974771</v>
+        <v>943305</v>
       </c>
       <c r="H83" s="3">
-        <v>10.02</v>
+        <v>8.23</v>
       </c>
       <c r="I83" s="3">
+        <v>8.24</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K83" s="3">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="N83" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P83" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>8.18</v>
+      </c>
+      <c r="R83" s="3">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="S83" s="3">
+        <v>8.08</v>
+      </c>
+      <c r="T83" s="3">
+        <v>8.48</v>
+      </c>
+      <c r="U83" s="3">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="V83" s="3">
+        <v>8.44</v>
+      </c>
+      <c r="W83" s="3">
+        <v>8.08</v>
+      </c>
+      <c r="X83" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>-39.96</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>8.69</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="AH83" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="AJ83" s="3">
+        <v>9.85</v>
+      </c>
+      <c r="AK83" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="AL83" s="3">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AM83" s="3">
+        <v>-0.86</v>
+      </c>
+      <c r="AN83" s="3">
+        <v>-16.58</v>
+      </c>
+      <c r="AO83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP83" s="3">
         <v>10.4</v>
       </c>
-      <c r="J83" s="3">
-        <v>11.32</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11.32</v>
-      </c>
-      <c r="L83" s="3">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="N83" s="3">
-        <v>-17.91</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P83" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="R83" s="3">
-        <v>10.38</v>
-      </c>
-      <c r="S83" s="3">
-        <v>9.66</v>
-      </c>
-      <c r="T83" s="3">
-        <v>10.51</v>
-      </c>
-      <c r="U83" s="3">
-        <v>9.43</v>
-      </c>
-      <c r="V83" s="3">
-        <v>10.99</v>
-      </c>
-      <c r="W83" s="3">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="X83" s="3">
-        <v>12.44</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>13.03</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>6.91</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>-11.77</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>-76.69</v>
-      </c>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3">
-        <v>12.83</v>
-      </c>
-      <c r="AG83" s="3">
-        <v>6.91</v>
-      </c>
-      <c r="AH83" s="3">
-        <v>17.24</v>
-      </c>
-      <c r="AI83" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="AJ83" s="3">
-        <v>18.75</v>
-      </c>
-      <c r="AK83" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="AL83" s="3">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3">
-        <v>12.83</v>
-      </c>
       <c r="AQ83" s="3">
-        <v>6.91</v>
+        <v>5.82</v>
       </c>
       <c r="AR83" s="3">
-        <v>17.24</v>
+        <v>12.96</v>
       </c>
       <c r="AS83" s="3">
-        <v>5.4</v>
+        <v>3.78</v>
       </c>
       <c r="AT83" s="3">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="AU83" s="3">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="AV83" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW83" s="3">
         <v>0</v>
       </c>
-      <c r="AX83" s="3"/>
-      <c r="AY83" s="3"/>
-      <c r="AZ83" s="3"/>
+      <c r="AX83" s="3">
+        <v>44.01</v>
+      </c>
+      <c r="AY83" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="AZ83" s="3">
+        <v>-94.59</v>
+      </c>
       <c r="BA83" s="3">
-        <v>10.65</v>
-      </c>
-      <c r="BB83" s="3"/>
-      <c r="BC83" s="3"/>
-      <c r="BD83" s="3"/>
+        <v>8.23</v>
+      </c>
+      <c r="BB83" s="3">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="BC83" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="BD83" s="3">
+        <v>8.44</v>
+      </c>
       <c r="BE83" s="3">
-        <v>13.11</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="BF83" s="3">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="84" spans="1:58">
@@ -14810,175 +14833,155 @@
         <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2">
-        <v>3.08</v>
+        <v>9.93</v>
       </c>
       <c r="D84" s="2">
-        <v>3.13</v>
+        <v>10.24</v>
       </c>
       <c r="E84" s="2">
-        <v>3.08</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F84" s="2">
-        <v>3.13</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G84" s="2">
-        <v>37320710</v>
+        <v>31974771</v>
       </c>
       <c r="H84" s="2">
-        <v>3.12</v>
+        <v>10.02</v>
       </c>
       <c r="I84" s="2">
-        <v>3.1</v>
+        <v>10.4</v>
       </c>
       <c r="J84" s="2">
-        <v>3.12</v>
+        <v>11.32</v>
       </c>
       <c r="K84" s="2">
-        <v>3.4</v>
+        <v>11.32</v>
       </c>
       <c r="L84" s="2">
-        <v>3.13</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="M84" s="2">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="N84" s="2">
-        <v>0.1</v>
+        <v>-17.91</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P84" s="2">
-        <v>3.15</v>
+        <v>10.15</v>
       </c>
       <c r="Q84" s="2">
-        <v>3.1</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="R84" s="2">
-        <v>3.17</v>
+        <v>10.38</v>
       </c>
       <c r="S84" s="2">
-        <v>3.07</v>
+        <v>9.66</v>
       </c>
       <c r="T84" s="2">
-        <v>3.2</v>
+        <v>10.51</v>
       </c>
       <c r="U84" s="2">
-        <v>3.06</v>
+        <v>9.43</v>
       </c>
       <c r="V84" s="2">
-        <v>3.2</v>
+        <v>10.99</v>
       </c>
       <c r="W84" s="2">
-        <v>3.06</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="X84" s="2">
-        <v>3.23</v>
+        <v>12.44</v>
       </c>
       <c r="Y84" s="2">
-        <v>2.97</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="Z84" s="2">
-        <v>3.33</v>
+        <v>13.03</v>
       </c>
       <c r="AA84" s="2">
-        <v>2.93</v>
+        <v>6.91</v>
       </c>
       <c r="AB84" s="2">
-        <v>3.13</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AC84" s="2">
-        <v>2.62</v>
+        <v>-11.77</v>
       </c>
       <c r="AD84" s="2">
-        <v>21.03</v>
-      </c>
-      <c r="AE84" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>-76.69</v>
+      </c>
+      <c r="AE84" s="2"/>
       <c r="AF84" s="2">
-        <v>3.23</v>
+        <v>12.83</v>
       </c>
       <c r="AG84" s="2">
-        <v>2.91</v>
+        <v>6.91</v>
       </c>
       <c r="AH84" s="2">
-        <v>3.44</v>
+        <v>17.24</v>
       </c>
       <c r="AI84" s="2">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="AJ84" s="2">
-        <v>3.55</v>
+        <v>18.75</v>
       </c>
       <c r="AK84" s="2">
-        <v>2.59</v>
+        <v>0.99</v>
       </c>
       <c r="AL84" s="2">
-        <v>3.07</v>
-      </c>
-      <c r="AM84" s="2">
-        <v>-5.25</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>-43.2</v>
-      </c>
-      <c r="AO84" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AM84" s="2"/>
+      <c r="AN84" s="2"/>
+      <c r="AO84" s="2"/>
       <c r="AP84" s="2">
-        <v>4</v>
+        <v>12.83</v>
       </c>
       <c r="AQ84" s="2">
-        <v>2.14</v>
+        <v>6.91</v>
       </c>
       <c r="AR84" s="2">
-        <v>5.26</v>
+        <v>17.24</v>
       </c>
       <c r="AS84" s="2">
-        <v>1.54</v>
+        <v>5.4</v>
       </c>
       <c r="AT84" s="2">
-        <v>5.86</v>
+        <v>18.75</v>
       </c>
       <c r="AU84" s="2">
-        <v>0.28</v>
+        <v>0.99</v>
       </c>
       <c r="AV84" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="2">
         <v>0</v>
       </c>
-      <c r="AX84" s="2">
-        <v>48.57</v>
-      </c>
-      <c r="AY84" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AZ84" s="2">
-        <v>-1.48</v>
-      </c>
+      <c r="AX84" s="2"/>
+      <c r="AY84" s="2"/>
+      <c r="AZ84" s="2"/>
       <c r="BA84" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="BB84" s="2">
-        <v>3.09</v>
-      </c>
-      <c r="BC84" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="BD84" s="2">
-        <v>3.17</v>
-      </c>
+        <v>10.65</v>
+      </c>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2"/>
       <c r="BE84" s="2">
-        <v>3.01</v>
+        <v>13.11</v>
       </c>
       <c r="BF84" s="2">
-        <v>1.16</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="85" spans="1:58">
@@ -14986,180 +14989,356 @@
         <v>141</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="D85" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="G85" s="3">
+        <v>37320710</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="I85" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="K85" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="L85" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P85" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R85" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="S85" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="T85" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="U85" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="V85" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="W85" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="X85" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>21.03</v>
+      </c>
+      <c r="AE85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="AH85" s="3">
+        <v>3.44</v>
+      </c>
+      <c r="AI85" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="AJ85" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="AK85" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="AL85" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AM85" s="3">
+        <v>-5.25</v>
+      </c>
+      <c r="AN85" s="3">
+        <v>-43.2</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP85" s="3">
+        <v>4</v>
+      </c>
+      <c r="AQ85" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="AR85" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="AS85" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="AT85" s="3">
+        <v>5.86</v>
+      </c>
+      <c r="AU85" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="AV85" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="3">
+        <v>48.57</v>
+      </c>
+      <c r="AY85" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AZ85" s="3">
+        <v>-1.48</v>
+      </c>
+      <c r="BA85" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="BB85" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="BC85" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="BD85" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="BE85" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="BF85" s="3">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
+      <c r="A86" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="3">
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2">
         <v>23.44</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D86" s="2">
         <v>23.62</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E86" s="2">
         <v>22.9</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="2">
         <v>23</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="2">
         <v>1194280</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H86" s="2">
         <v>23.13</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I86" s="2">
         <v>23.12</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J86" s="2">
         <v>23.26</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K86" s="2">
         <v>22.24</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L86" s="2">
         <v>23</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M86" s="2">
         <v>-1.88</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N86" s="2">
         <v>-55.55</v>
       </c>
-      <c r="O85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P85" s="3">
+      <c r="O86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P86" s="2">
         <v>23.36</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="Q86" s="2">
         <v>22.64</v>
       </c>
-      <c r="R85" s="3">
+      <c r="R86" s="2">
         <v>23.85</v>
       </c>
-      <c r="S85" s="3">
+      <c r="S86" s="2">
         <v>22.41</v>
       </c>
-      <c r="T85" s="3">
+      <c r="T86" s="2">
         <v>24.08</v>
       </c>
-      <c r="U85" s="3">
+      <c r="U86" s="2">
         <v>21.92</v>
       </c>
-      <c r="V85" s="3">
+      <c r="V86" s="2">
         <v>23.73</v>
       </c>
-      <c r="W85" s="3">
+      <c r="W86" s="2">
         <v>22.27</v>
       </c>
-      <c r="X85" s="3">
+      <c r="X86" s="2">
         <v>24.58</v>
       </c>
-      <c r="Y85" s="3">
+      <c r="Y86" s="2">
         <v>21.66</v>
       </c>
-      <c r="Z85" s="3">
+      <c r="Z86" s="2">
         <v>25.19</v>
       </c>
-      <c r="AA85" s="3">
+      <c r="AA86" s="2">
         <v>20.81</v>
       </c>
-      <c r="AB85" s="3">
+      <c r="AB86" s="2">
         <v>23</v>
       </c>
-      <c r="AC85" s="3">
+      <c r="AC86" s="2">
         <v>-0.17</v>
       </c>
-      <c r="AD85" s="3">
+      <c r="AD86" s="2">
         <v>45.19</v>
       </c>
-      <c r="AE85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF85" s="3">
+      <c r="AE86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF86" s="2">
         <v>24.32</v>
       </c>
-      <c r="AG85" s="3">
+      <c r="AG86" s="2">
         <v>22.56</v>
       </c>
-      <c r="AH85" s="3">
+      <c r="AH86" s="2">
         <v>25.02</v>
       </c>
-      <c r="AI85" s="3">
+      <c r="AI86" s="2">
         <v>21.5</v>
       </c>
-      <c r="AJ85" s="3">
+      <c r="AJ86" s="2">
         <v>26.08</v>
       </c>
-      <c r="AK85" s="3">
+      <c r="AK86" s="2">
         <v>20.8</v>
       </c>
-      <c r="AL85" s="3">
+      <c r="AL86" s="2">
         <v>23.44</v>
       </c>
-      <c r="AM85" s="3">
+      <c r="AM86" s="2">
         <v>5.59</v>
       </c>
-      <c r="AN85" s="3">
+      <c r="AN86" s="2">
         <v>11.76</v>
       </c>
-      <c r="AO85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP85" s="3">
+      <c r="AO86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP86" s="2">
         <v>31.89</v>
       </c>
-      <c r="AQ85" s="3">
+      <c r="AQ86" s="2">
         <v>14.99</v>
       </c>
-      <c r="AR85" s="3">
+      <c r="AR86" s="2">
         <v>39.14</v>
       </c>
-      <c r="AS85" s="3">
+      <c r="AS86" s="2">
         <v>5.35</v>
       </c>
-      <c r="AT85" s="3">
+      <c r="AT86" s="2">
         <v>48.79</v>
       </c>
-      <c r="AU85" s="3">
+      <c r="AU86" s="2">
         <v>-1.91</v>
       </c>
-      <c r="AV85" s="3">
+      <c r="AV86" s="2">
         <v>0</v>
       </c>
-      <c r="AW85" s="3">
+      <c r="AW86" s="2">
         <v>3</v>
       </c>
-      <c r="AX85" s="3">
+      <c r="AX86" s="2">
         <v>52.04</v>
       </c>
-      <c r="AY85" s="3">
+      <c r="AY86" s="2">
         <v>0.04</v>
       </c>
-      <c r="AZ85" s="3">
+      <c r="AZ86" s="2">
         <v>121.82</v>
       </c>
-      <c r="BA85" s="3">
+      <c r="BA86" s="2">
         <v>23.05</v>
       </c>
-      <c r="BB85" s="3">
+      <c r="BB86" s="2">
         <v>22.93</v>
       </c>
-      <c r="BC85" s="3">
+      <c r="BC86" s="2">
         <v>22.87</v>
       </c>
-      <c r="BD85" s="3">
+      <c r="BD86" s="2">
         <v>22.83</v>
       </c>
-      <c r="BE85" s="3">
+      <c r="BE86" s="2">
         <v>22.5</v>
       </c>
-      <c r="BF85" s="3">
+      <c r="BF86" s="2">
         <v>1.21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF85"/>
-  <conditionalFormatting sqref="AA2:AA85">
+  <autoFilter ref="A1:BF86"/>
+  <conditionalFormatting sqref="AA2:AA86">
     <cfRule type="expression" dxfId="0" priority="46">
       <formula>$F2&gt;$AA2</formula>
     </cfRule>
@@ -15170,7 +15349,7 @@
       <formula>$F2=$AA2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF85">
+  <conditionalFormatting sqref="AF2:AF86">
     <cfRule type="expression" dxfId="0" priority="49">
       <formula>$F2&gt;$AF2</formula>
     </cfRule>
@@ -15181,7 +15360,7 @@
       <formula>$F2=$AF2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG85">
+  <conditionalFormatting sqref="AG2:AG86">
     <cfRule type="expression" dxfId="0" priority="52">
       <formula>$F2&gt;$AG2</formula>
     </cfRule>
@@ -15192,7 +15371,7 @@
       <formula>$F2=$AG2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH85">
+  <conditionalFormatting sqref="AH2:AH86">
     <cfRule type="expression" dxfId="0" priority="55">
       <formula>$F2&gt;$AH2</formula>
     </cfRule>
@@ -15203,7 +15382,7 @@
       <formula>$F2=$AH2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI85">
+  <conditionalFormatting sqref="AI2:AI86">
     <cfRule type="expression" dxfId="0" priority="58">
       <formula>$F2&gt;$AI2</formula>
     </cfRule>
@@ -15214,7 +15393,7 @@
       <formula>$F2=$AI2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ85">
+  <conditionalFormatting sqref="AJ2:AJ86">
     <cfRule type="expression" dxfId="0" priority="61">
       <formula>$F2&gt;$AJ2</formula>
     </cfRule>
@@ -15225,7 +15404,7 @@
       <formula>$F2=$AJ2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK85">
+  <conditionalFormatting sqref="AK2:AK86">
     <cfRule type="expression" dxfId="0" priority="64">
       <formula>$F2&gt;$AK2</formula>
     </cfRule>
@@ -15236,7 +15415,7 @@
       <formula>$F2=$AK2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP85">
+  <conditionalFormatting sqref="AP2:AP86">
     <cfRule type="expression" dxfId="0" priority="67">
       <formula>$F2&gt;$AP2</formula>
     </cfRule>
@@ -15247,7 +15426,7 @@
       <formula>$F2=$AP2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ85">
+  <conditionalFormatting sqref="AQ2:AQ86">
     <cfRule type="expression" dxfId="0" priority="70">
       <formula>$F2&gt;$AQ2</formula>
     </cfRule>
@@ -15258,7 +15437,7 @@
       <formula>$F2=$AQ2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR85">
+  <conditionalFormatting sqref="AR2:AR86">
     <cfRule type="expression" dxfId="0" priority="73">
       <formula>$F2&gt;$AR2</formula>
     </cfRule>
@@ -15269,7 +15448,7 @@
       <formula>$F2=$AR2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS85">
+  <conditionalFormatting sqref="AS2:AS86">
     <cfRule type="expression" dxfId="0" priority="76">
       <formula>$F2&gt;$AS2</formula>
     </cfRule>
@@ -15280,7 +15459,7 @@
       <formula>$F2=$AS2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT85">
+  <conditionalFormatting sqref="AT2:AT86">
     <cfRule type="expression" dxfId="0" priority="79">
       <formula>$F2&gt;$AT2</formula>
     </cfRule>
@@ -15291,7 +15470,7 @@
       <formula>$F2=$AT2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU85">
+  <conditionalFormatting sqref="AU2:AU86">
     <cfRule type="expression" dxfId="0" priority="82">
       <formula>$F2&gt;$AU2</formula>
     </cfRule>
@@ -15302,7 +15481,7 @@
       <formula>$F2=$AU2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H85">
+  <conditionalFormatting sqref="H2:H86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2&gt;$H2</formula>
     </cfRule>
@@ -15313,7 +15492,7 @@
       <formula>$F2=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I85">
+  <conditionalFormatting sqref="I2:I86">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F2&gt;$I2</formula>
     </cfRule>
@@ -15324,7 +15503,7 @@
       <formula>$F2=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J85">
+  <conditionalFormatting sqref="J2:J86">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F2&gt;$J2</formula>
     </cfRule>
@@ -15335,7 +15514,7 @@
       <formula>$F2=$J2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K85">
+  <conditionalFormatting sqref="K2:K86">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F2&gt;$K2</formula>
     </cfRule>
@@ -15346,7 +15525,7 @@
       <formula>$F2=$K2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P85">
+  <conditionalFormatting sqref="P2:P86">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F2&gt;$P2</formula>
     </cfRule>
@@ -15357,7 +15536,7 @@
       <formula>$F2=$P2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q85">
+  <conditionalFormatting sqref="Q2:Q86">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F2&gt;$Q2</formula>
     </cfRule>
@@ -15368,7 +15547,7 @@
       <formula>$F2=$Q2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R85">
+  <conditionalFormatting sqref="R2:R86">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>$F2&gt;$R2</formula>
     </cfRule>
@@ -15379,7 +15558,7 @@
       <formula>$F2=$R2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S85">
+  <conditionalFormatting sqref="S2:S86">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>$F2&gt;$S2</formula>
     </cfRule>
@@ -15390,7 +15569,7 @@
       <formula>$F2=$S2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T85">
+  <conditionalFormatting sqref="T2:T86">
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>$F2&gt;$T2</formula>
     </cfRule>
@@ -15401,7 +15580,7 @@
       <formula>$F2=$T2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U85">
+  <conditionalFormatting sqref="U2:U86">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>$F2&gt;$U2</formula>
     </cfRule>
@@ -15412,7 +15591,7 @@
       <formula>$F2=$U2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V85">
+  <conditionalFormatting sqref="V2:V86">
     <cfRule type="expression" dxfId="0" priority="31">
       <formula>$F2&gt;$V2</formula>
     </cfRule>
@@ -15423,7 +15602,7 @@
       <formula>$F2=$V2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W85">
+  <conditionalFormatting sqref="W2:W86">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>$F2&gt;$W2</formula>
     </cfRule>
@@ -15434,7 +15613,7 @@
       <formula>$F2=$W2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X85">
+  <conditionalFormatting sqref="X2:X86">
     <cfRule type="expression" dxfId="0" priority="37">
       <formula>$F2&gt;$X2</formula>
     </cfRule>
@@ -15445,7 +15624,7 @@
       <formula>$F2=$X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y85">
+  <conditionalFormatting sqref="Y2:Y86">
     <cfRule type="expression" dxfId="0" priority="40">
       <formula>$F2&gt;$Y2</formula>
     </cfRule>
@@ -15456,7 +15635,7 @@
       <formula>$F2=$Y2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z85">
+  <conditionalFormatting sqref="Z2:Z86">
     <cfRule type="expression" dxfId="0" priority="43">
       <formula>$F2&gt;$Z2</formula>
     </cfRule>
@@ -15473,7 +15652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -15505,10 +15684,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -15543,7 +15722,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -15556,7 +15735,7 @@
         <v>37.77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2">
         <v>1.73</v>
@@ -15565,7 +15744,7 @@
         <v>18.93</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2">
         <v>2.01</v>
@@ -15574,7 +15753,7 @@
         <v>96.68000000000001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15582,7 +15761,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -15595,7 +15774,7 @@
         <v>92.44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H3" s="3">
         <v>-9.609999999999999</v>
@@ -15604,7 +15783,7 @@
         <v>-58.13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" s="3">
         <v>-15.58</v>
@@ -15613,7 +15792,7 @@
         <v>656.65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -15621,10 +15800,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -15634,7 +15813,7 @@
         <v>9.17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4" s="2">
         <v>1.59</v>
@@ -15643,7 +15822,7 @@
         <v>22.01</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K4" s="2">
         <v>-3.55</v>
@@ -15652,7 +15831,7 @@
         <v>-33.74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -15660,10 +15839,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -15673,7 +15852,7 @@
         <v>352.43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H5" s="3">
         <v>8.91</v>
@@ -15682,7 +15861,7 @@
         <v>19.55</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K5" s="3">
         <v>-2.57</v>
@@ -15691,7 +15870,7 @@
         <v>-29.7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15699,10 +15878,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -15712,7 +15891,7 @@
         <v>25.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" s="2">
         <v>2.78</v>
@@ -15721,7 +15900,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="2">
         <v>7.48</v>
@@ -15730,7 +15909,7 @@
         <v>-15.48</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -15738,10 +15917,10 @@
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -15751,7 +15930,7 @@
         <v>-27.86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H7" s="3">
         <v>-4.38</v>
@@ -15760,7 +15939,7 @@
         <v>-44.11</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3">
         <v>17.29</v>
@@ -15769,7 +15948,7 @@
         <v>15.61</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15777,11 +15956,11 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2">
         <v>-0.86</v>
@@ -15790,7 +15969,7 @@
         <v>-7.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" s="2">
         <v>-2.99</v>
@@ -15799,7 +15978,7 @@
         <v>-37.38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K8" s="2">
         <v>3.56</v>
@@ -15808,7 +15987,7 @@
         <v>-40.69</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15816,10 +15995,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -15829,7 +16008,7 @@
         <v>40.43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H9" s="3">
         <v>1.65</v>
@@ -15838,7 +16017,7 @@
         <v>-51.83</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3">
         <v>24.23</v>
@@ -15847,7 +16026,7 @@
         <v>-26.15</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15855,13 +16034,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2">
         <v>-9.94</v>
@@ -15870,7 +16049,7 @@
         <v>1088.92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2">
         <v>-34.23</v>
@@ -15879,7 +16058,7 @@
         <v>-37.71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K10" s="2">
         <v>-8.039999999999999</v>
@@ -15888,7 +16067,7 @@
         <v>17.17</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15896,7 +16075,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -15909,7 +16088,7 @@
         <v>72.19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H11" s="3">
         <v>-0.25</v>
@@ -15918,7 +16097,7 @@
         <v>-32.65</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" s="3">
         <v>-1.83</v>
@@ -15927,7 +16106,7 @@
         <v>-28.51</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -15935,10 +16114,10 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -15948,7 +16127,7 @@
         <v>6.67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2">
         <v>0.37</v>
@@ -15957,7 +16136,7 @@
         <v>-49.13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K12" s="2">
         <v>10.36</v>
@@ -15966,7 +16145,7 @@
         <v>-15.91</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -15974,10 +16153,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -15987,7 +16166,7 @@
         <v>20.22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="3">
         <v>2.72</v>
@@ -15996,7 +16175,7 @@
         <v>61.57</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K13" s="3">
         <v>-3.97</v>
@@ -16005,7 +16184,7 @@
         <v>-25.5</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16013,10 +16192,10 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -16026,7 +16205,7 @@
         <v>58.4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2">
         <v>0.91</v>
@@ -16035,7 +16214,7 @@
         <v>-17.16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K14" s="2">
         <v>-10.08</v>
@@ -16044,7 +16223,7 @@
         <v>-34.23</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16052,7 +16231,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16063,7 +16242,7 @@
         <v>-1.86</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H15" s="3">
         <v>3.11</v>
@@ -16072,7 +16251,7 @@
         <v>7.11</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K15" s="3">
         <v>3.14</v>
@@ -16081,7 +16260,7 @@
         <v>-29.67</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16089,10 +16268,10 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -16102,7 +16281,7 @@
         <v>-23.7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2">
         <v>-0.9399999999999999</v>
@@ -16111,7 +16290,7 @@
         <v>56.66</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" s="2">
         <v>1.46</v>
@@ -16120,7 +16299,7 @@
         <v>15.69</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -16128,7 +16307,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -16141,7 +16320,7 @@
         <v>-19.25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H17" s="3">
         <v>1.03</v>
@@ -16150,7 +16329,7 @@
         <v>-15.85</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" s="3">
         <v>-2.76</v>
@@ -16159,7 +16338,7 @@
         <v>145.41</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -16167,10 +16346,10 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
@@ -16180,7 +16359,7 @@
         <v>362.42</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2">
         <v>5.33</v>
@@ -16189,7 +16368,7 @@
         <v>43.91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" s="2">
         <v>-2.76</v>
@@ -16198,7 +16377,7 @@
         <v>-29.33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -16206,10 +16385,10 @@
         <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
@@ -16219,7 +16398,7 @@
         <v>-17.64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H19" s="3">
         <v>1.03</v>
@@ -16228,7 +16407,7 @@
         <v>-30.22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K19" s="3">
         <v>-5.34</v>
@@ -16237,7 +16416,7 @@
         <v>-8.42</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -16245,7 +16424,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -16258,7 +16437,7 @@
         <v>3.71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2">
         <v>1.7</v>
@@ -16267,7 +16446,7 @@
         <v>-24.62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="2">
         <v>-6.61</v>
@@ -16276,7 +16455,7 @@
         <v>-55.46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -16284,7 +16463,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -16297,7 +16476,7 @@
         <v>-42.14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="3">
         <v>-1.08</v>
@@ -16306,7 +16485,7 @@
         <v>-58.29</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="3">
         <v>3.95</v>
@@ -16315,7 +16494,7 @@
         <v>27.71</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -16323,11 +16502,11 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2">
         <v>-2.62</v>
@@ -16336,7 +16515,7 @@
         <v>-53.83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="2">
         <v>-7.93</v>
@@ -16345,7 +16524,7 @@
         <v>94.72</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="2">
         <v>-2.56</v>
@@ -16354,7 +16533,7 @@
         <v>2.95</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -16362,7 +16541,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -16375,7 +16554,7 @@
         <v>-56.66</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" s="3">
         <v>-7.86</v>
@@ -16384,7 +16563,7 @@
         <v>-65.43000000000001</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K23" s="3">
         <v>1.61</v>
@@ -16393,7 +16572,7 @@
         <v>126.96</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -16401,7 +16580,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -16414,7 +16593,7 @@
         <v>72.55</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="2">
         <v>-6.46</v>
@@ -16423,7 +16602,7 @@
         <v>-11.07</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="2">
         <v>-3.49</v>
@@ -16432,7 +16611,7 @@
         <v>-28.17</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -16440,10 +16619,10 @@
         <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
@@ -16453,7 +16632,7 @@
         <v>12.86</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3">
         <v>2.1</v>
@@ -16462,7 +16641,7 @@
         <v>-20.77</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="3">
         <v>-2.53</v>
@@ -16471,7 +16650,7 @@
         <v>-0.44</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -16479,10 +16658,10 @@
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
@@ -16492,7 +16671,7 @@
         <v>84.41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2">
         <v>0.53</v>
@@ -16501,7 +16680,7 @@
         <v>-31.82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="2">
         <v>-9.73</v>
@@ -16510,7 +16689,7 @@
         <v>-53.93</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -16518,7 +16697,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -16533,7 +16712,7 @@
         <v>-16.82</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3">
         <v>3.78</v>
@@ -16542,7 +16721,7 @@
         <v>-56.7</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K27" s="3">
         <v>3.51</v>
@@ -16551,7 +16730,7 @@
         <v>-12.52</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -16559,10 +16738,10 @@
         <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -16572,7 +16751,7 @@
         <v>73.77</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="2">
         <v>4.95</v>
@@ -16581,7 +16760,7 @@
         <v>14.9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" s="2">
         <v>-3.7</v>
@@ -16590,7 +16769,7 @@
         <v>-13.38</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -16598,11 +16777,11 @@
         <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3">
         <v>-6.91</v>
@@ -16611,7 +16790,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="3">
         <v>-6.29</v>
@@ -16620,7 +16799,7 @@
         <v>12.6</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="3">
         <v>17.12</v>
@@ -16629,7 +16808,7 @@
         <v>59.84</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -16637,7 +16816,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -16648,7 +16827,7 @@
         <v>-28.95</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="2">
         <v>-2.86</v>
@@ -16657,7 +16836,7 @@
         <v>-74.47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K30" s="2">
         <v>4.45</v>
@@ -16666,7 +16845,7 @@
         <v>38.23</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -16674,10 +16853,10 @@
         <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
@@ -16687,7 +16866,7 @@
         <v>55.87</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H31" s="3">
         <v>4.9</v>
@@ -16696,7 +16875,7 @@
         <v>-35.21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K31" s="3">
         <v>6.6</v>
@@ -16705,7 +16884,7 @@
         <v>2.02</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -16713,10 +16892,10 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
@@ -16726,7 +16905,7 @@
         <v>88.29000000000001</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2">
         <v>1.92</v>
@@ -16735,7 +16914,7 @@
         <v>-27.32</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K32" s="2">
         <v>-21.94</v>
@@ -16750,7 +16929,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
@@ -16763,7 +16942,7 @@
         <v>179.21</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -16772,7 +16951,7 @@
         <v>-7.13</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K33" s="3">
         <v>-8</v>
@@ -16781,7 +16960,7 @@
         <v>-54.2</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -16789,7 +16968,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -16802,7 +16981,7 @@
         <v>62.04</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2">
         <v>-0.61</v>
@@ -16811,7 +16990,7 @@
         <v>-53.09</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K34" s="2">
         <v>0.97</v>
@@ -16820,7 +16999,7 @@
         <v>-29.75</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -16828,7 +17007,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -16841,7 +17020,7 @@
         <v>-13.39</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H35" s="3">
         <v>7.08</v>
@@ -16850,7 +17029,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35" s="3">
         <v>-1.19</v>
@@ -16859,7 +17038,7 @@
         <v>154.53</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -16867,11 +17046,11 @@
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2">
         <v>-2.3</v>
@@ -16880,7 +17059,7 @@
         <v>-23.06</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H36" s="2">
         <v>-2.93</v>
@@ -16889,7 +17068,7 @@
         <v>-77.81999999999999</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K36" s="2">
         <v>7.76</v>
@@ -16898,7 +17077,7 @@
         <v>233.35</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -16906,11 +17085,11 @@
         <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E37" s="3">
         <v>-8.869999999999999</v>
@@ -16919,7 +17098,7 @@
         <v>-3.89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H37" s="3">
         <v>5.08</v>
@@ -16928,7 +17107,7 @@
         <v>-43.71</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K37" s="3">
         <v>85.93000000000001</v>
@@ -16937,7 +17116,7 @@
         <v>27.49</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -16945,10 +17124,10 @@
         <v>94</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
@@ -16958,7 +17137,7 @@
         <v>23.76</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H38" s="2">
         <v>0.76</v>
@@ -16967,7 +17146,7 @@
         <v>-37.21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K38" s="2">
         <v>-7.14</v>
@@ -16976,7 +17155,7 @@
         <v>-51.78</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -16984,10 +17163,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
@@ -16997,7 +17176,7 @@
         <v>-14.82</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H39" s="3">
         <v>-0.74</v>
@@ -17006,7 +17185,7 @@
         <v>-4.63</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K39" s="3">
         <v>-10.59</v>
@@ -17015,7 +17194,7 @@
         <v>-36.27</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -17023,7 +17202,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -17036,7 +17215,7 @@
         <v>-27.7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H40" s="2">
         <v>-10</v>
@@ -17045,7 +17224,7 @@
         <v>-28.03</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K40" s="2">
         <v>73.83</v>
@@ -17054,7 +17233,7 @@
         <v>217.94</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -17062,7 +17241,7 @@
         <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -17073,7 +17252,7 @@
         <v>-20.82</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="3">
         <v>-4.7</v>
@@ -17082,7 +17261,7 @@
         <v>-34.5</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K41" s="3">
         <v>-11.54</v>
@@ -17091,7 +17270,7 @@
         <v>-12.73</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -17099,10 +17278,10 @@
         <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -17112,7 +17291,7 @@
         <v>12.39</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2">
         <v>1.63</v>
@@ -17121,7 +17300,7 @@
         <v>-21.62</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K42" s="2">
         <v>-10.78</v>
@@ -17130,7 +17309,7 @@
         <v>8.31</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -17138,10 +17317,10 @@
         <v>99</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
@@ -17151,7 +17330,7 @@
         <v>139.95</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H43" s="3">
         <v>3.53</v>
@@ -17160,7 +17339,7 @@
         <v>50.84</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K43" s="3">
         <v>-0.33</v>
@@ -17169,7 +17348,7 @@
         <v>-31.64</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -17177,10 +17356,10 @@
         <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -17190,7 +17369,7 @@
         <v>23.34</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H44" s="2">
         <v>6.4</v>
@@ -17199,7 +17378,7 @@
         <v>-19.04</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K44" s="2">
         <v>4.33</v>
@@ -17208,7 +17387,7 @@
         <v>18.86</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -17216,10 +17395,10 @@
         <v>101</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3">
@@ -17243,7 +17422,7 @@
         <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
@@ -17270,7 +17449,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
@@ -17297,7 +17476,7 @@
         <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
@@ -17324,10 +17503,10 @@
         <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
@@ -17351,10 +17530,10 @@
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
@@ -17378,10 +17557,10 @@
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
@@ -17405,10 +17584,10 @@
         <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
@@ -17432,10 +17611,10 @@
         <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
@@ -17459,10 +17638,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
@@ -17486,10 +17665,10 @@
         <v>111</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3">
@@ -17513,10 +17692,10 @@
         <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
@@ -17540,10 +17719,10 @@
         <v>113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3">
@@ -17567,11 +17746,11 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2">
         <v>-1.74</v>
@@ -17594,7 +17773,7 @@
         <v>115</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -17619,7 +17798,7 @@
         <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -17646,7 +17825,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -17671,10 +17850,10 @@
         <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2">
@@ -17684,7 +17863,7 @@
         <v>40.94</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H62" s="2">
         <v>2.33</v>
@@ -17693,7 +17872,7 @@
         <v>-23.37</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K62" s="2">
         <v>2.62</v>
@@ -17702,7 +17881,7 @@
         <v>-5.72</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -17710,10 +17889,10 @@
         <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3">
@@ -17723,7 +17902,7 @@
         <v>37.3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H63" s="3">
         <v>1.81</v>
@@ -17732,7 +17911,7 @@
         <v>-21.67</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K63" s="3">
         <v>3.33</v>
@@ -17741,7 +17920,7 @@
         <v>-14.31</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -17749,10 +17928,10 @@
         <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
@@ -17776,10 +17955,10 @@
         <v>121</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3">
@@ -17803,10 +17982,10 @@
         <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
@@ -17830,10 +18009,10 @@
         <v>123</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
@@ -17857,7 +18036,7 @@
         <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
@@ -17884,7 +18063,7 @@
         <v>125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -17895,7 +18074,7 @@
         <v>31.08</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H69" s="3">
         <v>-1.99</v>
@@ -17904,7 +18083,7 @@
         <v>-57.88</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K69" s="3">
         <v>11.62</v>
@@ -17913,7 +18092,7 @@
         <v>436.9</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -17921,7 +18100,7 @@
         <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -17932,7 +18111,7 @@
         <v>77.55</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H70" s="2">
         <v>1.97</v>
@@ -17941,7 +18120,7 @@
         <v>-37.02</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K70" s="2">
         <v>16.9</v>
@@ -17950,7 +18129,7 @@
         <v>62.48</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -17958,7 +18137,7 @@
         <v>127</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -17969,7 +18148,7 @@
         <v>82.87</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H71" s="3">
         <v>-4.2</v>
@@ -17978,7 +18157,7 @@
         <v>-14.14</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K71" s="3">
         <v>-14.39</v>
@@ -17987,7 +18166,7 @@
         <v>-24.87</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -17995,13 +18174,13 @@
         <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" s="2">
         <v>1.41</v>
@@ -18010,7 +18189,7 @@
         <v>-27.57</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H72" s="2">
         <v>0.47</v>
@@ -18019,7 +18198,7 @@
         <v>-28.15</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K72" s="2">
         <v>0.85</v>
@@ -18028,7 +18207,7 @@
         <v>-19.68</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -18036,10 +18215,10 @@
         <v>129</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
@@ -18049,7 +18228,7 @@
         <v>53.06</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H73" s="3">
         <v>0.16</v>
@@ -18058,7 +18237,7 @@
         <v>-35.27</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
@@ -18067,7 +18246,7 @@
         <v>-29.76</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -18075,7 +18254,7 @@
         <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -18088,7 +18267,7 @@
         <v>37.06</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2">
         <v>-5.29</v>
@@ -18097,7 +18276,7 @@
         <v>-68</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K74" s="2">
         <v>-12.11</v>
@@ -18106,7 +18285,7 @@
         <v>-54.36</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -18114,10 +18293,10 @@
         <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
@@ -18127,7 +18306,7 @@
         <v>-29.24</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H75" s="3">
         <v>6.02</v>
@@ -18136,7 +18315,7 @@
         <v>52.7</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K75" s="3">
         <v>-0.23</v>
@@ -18145,7 +18324,7 @@
         <v>-8.66</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -18153,10 +18332,10 @@
         <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
@@ -18166,7 +18345,7 @@
         <v>-40.86</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H76" s="2">
         <v>1.39</v>
@@ -18175,7 +18354,7 @@
         <v>-18.89</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K76" s="2">
         <v>-2.8</v>
@@ -18184,7 +18363,7 @@
         <v>-19.6</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -18192,10 +18371,10 @@
         <v>133</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
@@ -18205,7 +18384,7 @@
         <v>52.21</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H77" s="3">
         <v>8.359999999999999</v>
@@ -18214,7 +18393,7 @@
         <v>-21.01</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K77" s="3">
         <v>2.61</v>
@@ -18223,7 +18402,7 @@
         <v>23.26</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -18231,7 +18410,7 @@
         <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
@@ -18244,7 +18423,7 @@
         <v>26.76</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H78" s="2">
         <v>1.92</v>
@@ -18253,7 +18432,7 @@
         <v>-26.94</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K78" s="2">
         <v>-8.08</v>
@@ -18262,7 +18441,7 @@
         <v>138.94</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -18270,7 +18449,7 @@
         <v>135</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -18281,7 +18460,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H79" s="3">
         <v>0.08</v>
@@ -18290,7 +18469,7 @@
         <v>-22.82</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K79" s="3">
         <v>-7.81</v>
@@ -18299,7 +18478,7 @@
         <v>59.78</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -18307,7 +18486,7 @@
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -18320,7 +18499,7 @@
         <v>49.7</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H80" s="2">
         <v>1.73</v>
@@ -18329,7 +18508,7 @@
         <v>-24.33</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K80" s="2">
         <v>-9.23</v>
@@ -18338,7 +18517,7 @@
         <v>-65.68000000000001</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -18346,7 +18525,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -18357,7 +18536,7 @@
         <v>5.63</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H81" s="3">
         <v>-6.44</v>
@@ -18366,7 +18545,7 @@
         <v>-62.84</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K81" s="3">
         <v>-10.63</v>
@@ -18375,7 +18554,7 @@
         <v>-37.06</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -18383,38 +18562,38 @@
         <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="F82" s="2">
-        <v>5.81</v>
+        <v>-13.87</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H82" s="2">
-        <v>-0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I82" s="2">
-        <v>-39.96</v>
+        <v>-1.18</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K82" s="2">
-        <v>-0.86</v>
+        <v>-3</v>
       </c>
       <c r="L82" s="2">
-        <v>-16.58</v>
+        <v>-24.21</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -18422,110 +18601,149 @@
         <v>139</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="F83" s="3">
-        <v>-17.91</v>
+        <v>5.81</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H83" s="3">
-        <v>-11.77</v>
+        <v>-0.6</v>
       </c>
       <c r="I83" s="3">
-        <v>-76.69</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+        <v>-39.96</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" s="3">
+        <v>-0.86</v>
+      </c>
+      <c r="L83" s="3">
+        <v>-16.58</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="F84" s="2">
-        <v>0.1</v>
+        <v>-17.91</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H84" s="2">
-        <v>2.62</v>
+        <v>-11.77</v>
       </c>
       <c r="I84" s="2">
-        <v>21.03</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K84" s="2">
-        <v>-5.25</v>
-      </c>
-      <c r="L84" s="2">
-        <v>-43.2</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>-76.69</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="I85" s="3">
+        <v>21.03</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K85" s="3">
+        <v>-5.25</v>
+      </c>
+      <c r="L85" s="3">
+        <v>-43.2</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="2">
         <v>-1.88</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="2">
         <v>-55.55</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="G86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H86" s="2">
         <v>-0.17</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I86" s="2">
         <v>45.19</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K85" s="3">
+      <c r="J86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K86" s="2">
         <v>5.59</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L86" s="2">
         <v>11.76</v>
       </c>
-      <c r="M85" s="3" t="s">
-        <v>143</v>
+      <c r="M86" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M85"/>
+  <autoFilter ref="A1:M86"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>